--- a/Диффуры/Кс-24_Электронный журнал Учебный год_2022_23_1й семестр_Дисциплина_Высшая математика.xlsx
+++ b/Диффуры/Кс-24_Электронный журнал Учебный год_2022_23_1й семестр_Дисциплина_Высшая математика.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Список" sheetId="29" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Кс-24'!$A$5:$BL$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Кс-24'!$A$5:$BJ$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">КТ_1!$A$4:$J$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">КТ_2!$A$4:$J$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">КТ_3!$A$4:$J$22</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="172">
   <si>
     <t>№</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>ДЗ прислано после дедлайна</t>
+  </si>
+  <si>
+    <t>deadline (ДЗ, суббота, 20-00):</t>
   </si>
 </sst>
 </file>
@@ -828,7 +831,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,6 +895,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +1027,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1263,33 +1272,57 @@
     <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1311,6 +1344,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1349,15 +1388,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1748,12 +1778,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO57"/>
+  <dimension ref="A1:BM59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2760" topLeftCell="A10" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F1:F1048576"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32:AA36"/>
+      <pane ySplit="2760" activePane="bottomLeft"/>
+      <selection activeCell="P5" sqref="P1:Q1048576"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1764,392 +1794,381 @@
     <col min="4" max="5" width="4.7109375" style="12" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="12" customWidth="1"/>
     <col min="7" max="8" width="4.7109375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="12" customWidth="1"/>
     <col min="10" max="11" width="4.7109375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="2" customWidth="1"/>
     <col min="13" max="14" width="4.7109375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" style="12" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="12" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" style="12" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="12" customWidth="1"/>
-    <col min="20" max="21" width="4.7109375" style="12" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="12" customWidth="1"/>
-    <col min="23" max="24" width="4.7109375" style="12" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" style="12" customWidth="1"/>
-    <col min="26" max="27" width="4.7109375" style="12" customWidth="1"/>
-    <col min="28" max="28" width="5.7109375" style="12" customWidth="1"/>
-    <col min="29" max="30" width="4.7109375" style="12" customWidth="1"/>
-    <col min="31" max="31" width="5.7109375" style="12" customWidth="1"/>
-    <col min="32" max="33" width="4.7109375" style="12" customWidth="1"/>
-    <col min="34" max="34" width="5.7109375" style="12" customWidth="1"/>
+    <col min="15" max="16" width="8.7109375" style="12" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="12" customWidth="1"/>
+    <col min="18" max="19" width="4.7109375" style="12" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" style="12" customWidth="1"/>
+    <col min="21" max="22" width="4.7109375" style="12" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="12" customWidth="1"/>
+    <col min="24" max="25" width="4.7109375" style="12" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" style="12" customWidth="1"/>
+    <col min="27" max="28" width="4.7109375" style="12" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" style="12" customWidth="1"/>
+    <col min="30" max="31" width="4.7109375" style="12" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" style="12" customWidth="1"/>
+    <col min="33" max="33" width="6.7109375" style="12" customWidth="1"/>
+    <col min="34" max="34" width="4.7109375" style="12" customWidth="1"/>
     <col min="35" max="35" width="6.7109375" style="12" customWidth="1"/>
-    <col min="36" max="36" width="4.7109375" style="12" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" style="12" customWidth="1"/>
-    <col min="38" max="38" width="5.7109375" style="12" customWidth="1"/>
-    <col min="39" max="40" width="4.7109375" style="12" customWidth="1"/>
-    <col min="41" max="41" width="8.7109375" style="12" customWidth="1"/>
-    <col min="42" max="42" width="4.7109375" style="12" customWidth="1"/>
-    <col min="43" max="43" width="4.7109375" style="2" customWidth="1"/>
-    <col min="44" max="44" width="7.7109375" style="12" customWidth="1"/>
-    <col min="45" max="45" width="4.7109375" style="12" customWidth="1"/>
-    <col min="46" max="46" width="4.7109375" style="2" customWidth="1"/>
-    <col min="47" max="47" width="7.7109375" style="12" customWidth="1"/>
-    <col min="48" max="49" width="4.7109375" style="12" customWidth="1"/>
-    <col min="50" max="50" width="7.7109375" style="12" customWidth="1"/>
+    <col min="36" max="36" width="5.7109375" style="12" customWidth="1"/>
+    <col min="37" max="38" width="4.7109375" style="12" customWidth="1"/>
+    <col min="39" max="39" width="8.7109375" style="12" customWidth="1"/>
+    <col min="40" max="40" width="4.7109375" style="12" customWidth="1"/>
+    <col min="41" max="41" width="4.7109375" style="2" customWidth="1"/>
+    <col min="42" max="42" width="7.7109375" style="12" customWidth="1"/>
+    <col min="43" max="43" width="4.7109375" style="12" customWidth="1"/>
+    <col min="44" max="44" width="4.7109375" style="2" customWidth="1"/>
+    <col min="45" max="45" width="7.7109375" style="12" customWidth="1"/>
+    <col min="46" max="47" width="4.7109375" style="12" customWidth="1"/>
+    <col min="48" max="48" width="7.7109375" style="12" customWidth="1"/>
+    <col min="49" max="49" width="6.7109375" style="12" customWidth="1"/>
+    <col min="50" max="50" width="4.7109375" style="12" customWidth="1"/>
     <col min="51" max="51" width="6.7109375" style="12" customWidth="1"/>
-    <col min="52" max="52" width="4.7109375" style="12" customWidth="1"/>
-    <col min="53" max="53" width="6.7109375" style="12" customWidth="1"/>
-    <col min="54" max="54" width="5.7109375" style="12" customWidth="1"/>
-    <col min="55" max="55" width="8.7109375" style="12" customWidth="1"/>
-    <col min="56" max="56" width="10.7109375" style="2" customWidth="1"/>
-    <col min="57" max="58" width="9.7109375" style="2" customWidth="1"/>
-    <col min="59" max="59" width="8.5703125" style="2" customWidth="1"/>
-    <col min="60" max="60" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="63" width="6.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="64" max="65" width="11.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="66" max="67" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="16384" width="9.140625" style="2"/>
+    <col min="52" max="52" width="5.7109375" style="12" customWidth="1"/>
+    <col min="53" max="53" width="8.7109375" style="12" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" style="2" customWidth="1"/>
+    <col min="55" max="56" width="9.7109375" style="2" customWidth="1"/>
+    <col min="57" max="57" width="8.5703125" style="2" customWidth="1"/>
+    <col min="58" max="58" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="61" width="6.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="62" max="63" width="11.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="64" max="65" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="28.5">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:65" ht="28.5">
+      <c r="A1" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="93"/>
-      <c r="AS1" s="93"/>
-      <c r="AT1" s="93"/>
-      <c r="AU1" s="93"/>
-      <c r="AV1" s="93"/>
-      <c r="AW1" s="93"/>
-      <c r="AX1" s="93"/>
-      <c r="AY1" s="93"/>
-      <c r="AZ1" s="93"/>
-      <c r="BA1" s="93"/>
-      <c r="BB1" s="93"/>
-      <c r="BC1" s="93"/>
-      <c r="BD1" s="93"/>
-      <c r="BE1" s="93"/>
-      <c r="BF1" s="93"/>
-      <c r="BG1" s="93"/>
-    </row>
-    <row r="2" spans="1:67" ht="28.5">
-      <c r="A2" s="93" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="100"/>
+      <c r="AM1" s="100"/>
+      <c r="AN1" s="100"/>
+      <c r="AO1" s="100"/>
+      <c r="AP1" s="100"/>
+      <c r="AQ1" s="100"/>
+      <c r="AR1" s="100"/>
+      <c r="AS1" s="100"/>
+      <c r="AT1" s="100"/>
+      <c r="AU1" s="100"/>
+      <c r="AV1" s="100"/>
+      <c r="AW1" s="100"/>
+      <c r="AX1" s="100"/>
+      <c r="AY1" s="100"/>
+      <c r="AZ1" s="100"/>
+      <c r="BA1" s="100"/>
+      <c r="BB1" s="100"/>
+      <c r="BC1" s="100"/>
+      <c r="BD1" s="100"/>
+      <c r="BE1" s="100"/>
+    </row>
+    <row r="2" spans="1:65" ht="28.5">
+      <c r="A2" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="93"/>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-      <c r="AW2" s="93"/>
-      <c r="AX2" s="93"/>
-      <c r="AY2" s="93"/>
-      <c r="AZ2" s="93"/>
-      <c r="BA2" s="93"/>
-      <c r="BB2" s="93"/>
-      <c r="BC2" s="93"/>
-      <c r="BD2" s="93"/>
-      <c r="BE2" s="93"/>
-      <c r="BF2" s="93"/>
-      <c r="BG2" s="93"/>
-    </row>
-    <row r="3" spans="1:67" s="1" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A3" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="95" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="100"/>
+      <c r="AR2" s="100"/>
+      <c r="AS2" s="100"/>
+      <c r="AT2" s="100"/>
+      <c r="AU2" s="100"/>
+      <c r="AV2" s="100"/>
+      <c r="AW2" s="100"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="100"/>
+      <c r="BA2" s="100"/>
+      <c r="BB2" s="100"/>
+      <c r="BC2" s="100"/>
+      <c r="BD2" s="100"/>
+      <c r="BE2" s="100"/>
+    </row>
+    <row r="3" spans="1:65" s="1" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A3" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="105">
         <v>44810</v>
       </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="98">
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="105">
         <v>44817</v>
       </c>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="98">
+      <c r="H3" s="106"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="105">
         <v>44824</v>
       </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="98">
+      <c r="K3" s="106"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="105">
         <v>44831</v>
       </c>
-      <c r="N3" s="99"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="98">
+      <c r="N3" s="106"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="105">
         <v>44838</v>
       </c>
-      <c r="S3" s="100"/>
-      <c r="T3" s="98">
+      <c r="Q3" s="107"/>
+      <c r="R3" s="105">
         <v>44845</v>
       </c>
-      <c r="U3" s="99"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="98">
+      <c r="S3" s="106"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="105">
         <v>44852</v>
       </c>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="98">
+      <c r="V3" s="106"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="105">
         <v>44859</v>
       </c>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="98">
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="105">
         <v>44866</v>
       </c>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="98">
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="105">
         <v>44873</v>
       </c>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="98">
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="105">
         <v>44880</v>
       </c>
-      <c r="AL3" s="100"/>
-      <c r="AM3" s="98">
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="105">
         <v>44887</v>
       </c>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="100"/>
-      <c r="AP3" s="97">
+      <c r="AL3" s="106"/>
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="104">
         <v>44894</v>
       </c>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="97"/>
-      <c r="AS3" s="97">
+      <c r="AO3" s="104"/>
+      <c r="AP3" s="104"/>
+      <c r="AQ3" s="104">
         <v>44901</v>
       </c>
-      <c r="AT3" s="97"/>
-      <c r="AU3" s="97"/>
-      <c r="AV3" s="97">
+      <c r="AR3" s="104"/>
+      <c r="AS3" s="104"/>
+      <c r="AT3" s="104">
         <v>44908</v>
       </c>
-      <c r="AW3" s="97"/>
-      <c r="AX3" s="97"/>
-      <c r="AY3" s="98"/>
-      <c r="AZ3" s="100"/>
-      <c r="BA3" s="98">
+      <c r="AU3" s="104"/>
+      <c r="AV3" s="104"/>
+      <c r="AW3" s="105"/>
+      <c r="AX3" s="107"/>
+      <c r="AY3" s="105">
         <v>44915</v>
       </c>
-      <c r="BB3" s="100"/>
-      <c r="BC3" s="79">
+      <c r="AZ3" s="107"/>
+      <c r="BA3" s="79">
         <v>44922</v>
       </c>
-      <c r="BD3" s="105" t="s">
-        <v>1</v>
+      <c r="BB3" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD3" s="110" t="s">
+        <v>73</v>
       </c>
       <c r="BE3" s="101" t="s">
-        <v>71</v>
-      </c>
-      <c r="BF3" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="BH3" s="94" t="s">
+      <c r="BF3" s="101" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:67" s="1" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="98" t="s">
+    <row r="4" spans="1:65" s="1" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="98" t="s">
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="98" t="s">
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="99"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="98" t="s">
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="98" t="s">
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="100"/>
-      <c r="T4" s="98" t="s">
+      <c r="Q4" s="107"/>
+      <c r="R4" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="99"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="98" t="s">
+      <c r="S4" s="106"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="98" t="s">
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="98" t="s">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="98" t="s">
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="98" t="s">
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="98" t="s">
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="100"/>
-      <c r="AP4" s="97" t="s">
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="97"/>
-      <c r="AS4" s="97" t="s">
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="98" t="s">
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="99"/>
-      <c r="AY4" s="99"/>
-      <c r="AZ4" s="100"/>
-      <c r="BA4" s="98" t="s">
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="BB4" s="100"/>
-      <c r="BC4" s="82" t="s">
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="BD4" s="106"/>
+      <c r="BB4" s="114"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="111"/>
       <c r="BE4" s="101"/>
-      <c r="BF4" s="103"/>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-    </row>
-    <row r="5" spans="1:67" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="111"/>
+      <c r="BF4" s="101"/>
+    </row>
+    <row r="5" spans="1:65" s="1" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A5" s="101"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="121"/>
       <c r="D5" s="17" t="s">
         <v>14</v>
       </c>
@@ -2186,148 +2205,142 @@
       <c r="O5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="AH5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="S5" s="72" t="s">
+      <c r="AI5" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ5" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY5" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ5" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA5" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB5" s="115"/>
+      <c r="BC5" s="109"/>
+      <c r="BD5" s="112"/>
+      <c r="BE5" s="101"/>
+      <c r="BF5" s="101"/>
+      <c r="BG5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK5" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL5" s="69" t="s">
+      <c r="BH5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AM5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA5" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB5" s="72" t="s">
+      <c r="BI5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="BC5" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="101"/>
-      <c r="BF5" s="104"/>
-      <c r="BG5" s="94"/>
-      <c r="BH5" s="94"/>
-      <c r="BI5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="BJ5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="BL5" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="50" t="s">
+      <c r="BJ5" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="50" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:67" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="29">
         <v>1</v>
       </c>
@@ -2335,7 +2348,7 @@
         <v>140</v>
       </c>
       <c r="C6" s="68">
-        <f>E6+H6+K6+N6+Q6+U6+X6+AA6+AD6+AG6+AJ6+AN6+AQ6+AT6+AW6+AZ6</f>
+        <f>E6+H6+K6+N6+S6+V6+Y6+AB6+AE6+AH6+AL6+AO6+AR6+AU6+AX6</f>
         <v>1</v>
       </c>
       <c r="D6" s="70">
@@ -2350,86 +2363,86 @@
         <v>1</v>
       </c>
       <c r="I6" s="44"/>
-      <c r="J6" s="70"/>
+      <c r="J6" s="70">
+        <v>0</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="70"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
       <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
+      <c r="T6" s="9"/>
       <c r="U6" s="70"/>
       <c r="V6" s="9"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="70"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="70"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="70"/>
       <c r="AE6" s="9"/>
-      <c r="AF6" s="70"/>
+      <c r="AF6" s="84"/>
       <c r="AG6" s="9"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="44"/>
       <c r="AJ6" s="9"/>
-      <c r="AK6" s="44"/>
+      <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="33"/>
+      <c r="AN6" s="33"/>
+      <c r="AO6" s="33"/>
+      <c r="AP6" s="9"/>
       <c r="AQ6" s="33"/>
       <c r="AR6" s="9"/>
-      <c r="AS6" s="33"/>
+      <c r="AS6" s="9"/>
       <c r="AT6" s="9"/>
       <c r="AU6" s="9"/>
       <c r="AV6" s="9"/>
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
+      <c r="AY6" s="44"/>
       <c r="AZ6" s="9"/>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9">
-        <f>S6+AL6+BB6+BC6</f>
-        <v>0</v>
-      </c>
-      <c r="BE6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="71">
-        <f>BD6+BE6</f>
-        <v>0</v>
-      </c>
-      <c r="BG6" s="7">
-        <f>BE6/100</f>
-        <v>0</v>
-      </c>
-      <c r="BH6" s="3">
-        <f t="shared" ref="BH6:BH25" si="0">RANK(BE6,$BE$6:$BE$25,0)</f>
-        <v>1</v>
-      </c>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9">
+        <f>Q6+AJ6+AZ6+BA6</f>
+        <v>0</v>
+      </c>
+      <c r="BC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="71">
+        <f>BB6+BC6</f>
+        <v>0</v>
+      </c>
+      <c r="BE6" s="7">
+        <f>BC6/100</f>
+        <v>0</v>
+      </c>
+      <c r="BF6" s="3">
+        <f t="shared" ref="BF6:BF25" si="0">RANK(BC6,$BC$6:$BC$25,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
       <c r="BI6" s="3"/>
-      <c r="BJ6" s="3"/>
-      <c r="BK6" s="3"/>
-      <c r="BL6" s="3">
-        <f>BI6+BJ6+BK6</f>
-        <v>0</v>
-      </c>
-      <c r="BM6" s="3" t="b">
-        <f>BE6=BL6</f>
-        <v>1</v>
-      </c>
-      <c r="BN6" s="1"/>
-      <c r="BO6" s="1"/>
-    </row>
-    <row r="7" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BJ6" s="3">
+        <f>BG6+BH6+BI6</f>
+        <v>0</v>
+      </c>
+      <c r="BK6" s="3" t="b">
+        <f>BC6=BJ6</f>
+        <v>1</v>
+      </c>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+    </row>
+    <row r="7" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="29">
         <v>2</v>
       </c>
@@ -2437,7 +2450,7 @@
         <v>141</v>
       </c>
       <c r="C7" s="68">
-        <f t="shared" ref="C7:C25" si="1">E7+H7+K7+N7+Q7+U7+X7+AA7+AD7+AG7+AJ7+AN7+AQ7+AT7+AW7+AZ7</f>
+        <f t="shared" ref="C7:C25" si="1">E7+H7+K7+N7+S7+V7+Y7+AB7+AE7+AH7+AL7+AO7+AR7+AU7+AX7</f>
         <v>1</v>
       </c>
       <c r="D7" s="70">
@@ -2453,87 +2466,89 @@
         <v>1</v>
       </c>
       <c r="H7" s="70"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="70"/>
+      <c r="I7" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="J7" s="70">
+        <v>1</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="83"/>
       <c r="M7" s="70"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
       <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
+      <c r="T7" s="83"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="70"/>
       <c r="Y7" s="9"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="9"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="70"/>
       <c r="AE7" s="9"/>
-      <c r="AF7" s="70"/>
+      <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
+      <c r="AI7" s="44"/>
       <c r="AJ7" s="9"/>
-      <c r="AK7" s="44"/>
+      <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="33"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="9"/>
       <c r="AQ7" s="33"/>
       <c r="AR7" s="9"/>
-      <c r="AS7" s="33"/>
+      <c r="AS7" s="9"/>
       <c r="AT7" s="9"/>
       <c r="AU7" s="9"/>
       <c r="AV7" s="9"/>
       <c r="AW7" s="9"/>
       <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
+      <c r="AY7" s="44"/>
       <c r="AZ7" s="9"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="9"/>
-      <c r="BC7" s="9"/>
-      <c r="BD7" s="9">
-        <f t="shared" ref="BD7:BD25" si="2">S7+AL7+BB7+BC7</f>
-        <v>0</v>
-      </c>
-      <c r="BE7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="71">
-        <f t="shared" ref="BF7:BF25" si="3">BD7+BE7</f>
-        <v>0</v>
-      </c>
-      <c r="BG7" s="7">
-        <f t="shared" ref="BG7:BG25" si="4">BE7/100</f>
-        <v>0</v>
-      </c>
-      <c r="BH7" s="3">
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9">
+        <f t="shared" ref="BB7:BB25" si="2">Q7+AJ7+AZ7+BA7</f>
+        <v>0</v>
+      </c>
+      <c r="BC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="71">
+        <f t="shared" ref="BD7:BD25" si="3">BB7+BC7</f>
+        <v>0</v>
+      </c>
+      <c r="BE7" s="7">
+        <f t="shared" ref="BE7:BE25" si="4">BC7/100</f>
+        <v>0</v>
+      </c>
+      <c r="BF7" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
       <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
-      <c r="BL7" s="3">
-        <f t="shared" ref="BL7:BL25" si="5">BI7+BJ7+BK7</f>
-        <v>0</v>
-      </c>
-      <c r="BM7" s="3" t="b">
-        <f t="shared" ref="BM7:BM25" si="6">BE7=BL7</f>
-        <v>1</v>
-      </c>
-      <c r="BN7" s="1"/>
-      <c r="BO7" s="1"/>
-    </row>
-    <row r="8" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BJ7" s="3">
+        <f t="shared" ref="BJ7:BJ25" si="5">BG7+BH7+BI7</f>
+        <v>0</v>
+      </c>
+      <c r="BK7" s="3" t="b">
+        <f t="shared" ref="BK7:BK25" si="6">BC7=BJ7</f>
+        <v>1</v>
+      </c>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+    </row>
+    <row r="8" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="29">
         <v>3</v>
       </c>
@@ -2542,7 +2557,7 @@
       </c>
       <c r="C8" s="68">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="70">
         <v>1</v>
@@ -2557,87 +2572,91 @@
       <c r="H8" s="70">
         <v>1</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="9"/>
+      <c r="I8" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="70">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
       <c r="L8" s="83"/>
       <c r="M8" s="70"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
       <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
+      <c r="T8" s="44"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="70"/>
       <c r="AE8" s="9"/>
-      <c r="AF8" s="70"/>
+      <c r="AF8" s="44"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="44"/>
       <c r="AJ8" s="9"/>
-      <c r="AK8" s="44"/>
+      <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="9"/>
       <c r="AQ8" s="33"/>
       <c r="AR8" s="9"/>
-      <c r="AS8" s="33"/>
+      <c r="AS8" s="9"/>
       <c r="AT8" s="9"/>
       <c r="AU8" s="9"/>
       <c r="AV8" s="9"/>
       <c r="AW8" s="9"/>
       <c r="AX8" s="9"/>
-      <c r="AY8" s="9"/>
+      <c r="AY8" s="44"/>
       <c r="AZ8" s="9"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="9"/>
-      <c r="BC8" s="9"/>
-      <c r="BD8" s="9">
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BE8" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="71">
+      <c r="BC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BG8" s="7">
+      <c r="BE8" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH8" s="3">
+      <c r="BF8" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
       <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
-      <c r="BL8" s="3">
+      <c r="BJ8" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BM8" s="3" t="b">
+      <c r="BK8" s="3" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BN8" s="1"/>
-      <c r="BO8" s="1"/>
-    </row>
-    <row r="9" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+    </row>
+    <row r="9" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="29">
         <v>4</v>
       </c>
@@ -2659,87 +2678,89 @@
         <v>0</v>
       </c>
       <c r="H9" s="70"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="70"/>
+      <c r="I9" s="99">
+        <v>44821</v>
+      </c>
+      <c r="J9" s="70">
+        <v>1</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="70"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
       <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
+      <c r="T9" s="83"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
+      <c r="AI9" s="44"/>
       <c r="AJ9" s="9"/>
-      <c r="AK9" s="44"/>
+      <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
       <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="44"/>
       <c r="AQ9" s="33"/>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="33"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
       <c r="AU9" s="9"/>
       <c r="AV9" s="9"/>
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
-      <c r="AY9" s="9"/>
+      <c r="AY9" s="44"/>
       <c r="AZ9" s="9"/>
-      <c r="BA9" s="44"/>
-      <c r="BB9" s="9"/>
-      <c r="BC9" s="9"/>
-      <c r="BD9" s="9">
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BE9" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="71">
+      <c r="BC9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BG9" s="7">
+      <c r="BE9" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH9" s="3">
+      <c r="BF9" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
       <c r="BI9" s="3"/>
-      <c r="BJ9" s="3"/>
-      <c r="BK9" s="3"/>
-      <c r="BL9" s="3">
+      <c r="BJ9" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BM9" s="3" t="b">
+      <c r="BK9" s="3" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BN9" s="1"/>
-      <c r="BO9" s="1"/>
-    </row>
-    <row r="10" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+    </row>
+    <row r="10" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="29">
         <v>5</v>
       </c>
@@ -2763,87 +2784,89 @@
         <v>1</v>
       </c>
       <c r="H10" s="70"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="70"/>
+      <c r="I10" s="99">
+        <v>44821</v>
+      </c>
+      <c r="J10" s="70">
+        <v>1</v>
+      </c>
       <c r="K10" s="9"/>
       <c r="L10" s="43"/>
       <c r="M10" s="70"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
       <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
+      <c r="T10" s="83"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="70"/>
       <c r="Y10" s="9"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="9"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="70"/>
       <c r="AE10" s="9"/>
-      <c r="AF10" s="70"/>
+      <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
+      <c r="AI10" s="44"/>
       <c r="AJ10" s="9"/>
-      <c r="AK10" s="44"/>
+      <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="33"/>
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="33"/>
+      <c r="AP10" s="9"/>
       <c r="AQ10" s="33"/>
       <c r="AR10" s="9"/>
-      <c r="AS10" s="33"/>
+      <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
       <c r="AU10" s="9"/>
       <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
+      <c r="AY10" s="44"/>
       <c r="AZ10" s="9"/>
-      <c r="BA10" s="44"/>
-      <c r="BB10" s="9"/>
-      <c r="BC10" s="9"/>
-      <c r="BD10" s="9">
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BE10" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="71">
+      <c r="BC10" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BG10" s="7">
+      <c r="BE10" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH10" s="3">
+      <c r="BF10" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
       <c r="BI10" s="3"/>
-      <c r="BJ10" s="3"/>
-      <c r="BK10" s="3"/>
-      <c r="BL10" s="3">
+      <c r="BJ10" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BM10" s="3" t="b">
+      <c r="BK10" s="3" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BN10" s="1"/>
-      <c r="BO10" s="1"/>
-    </row>
-    <row r="11" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+    </row>
+    <row r="11" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="29">
         <v>6</v>
       </c>
@@ -2864,86 +2887,86 @@
       </c>
       <c r="H11" s="70"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="70"/>
+      <c r="J11" s="70">
+        <v>0</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="83"/>
       <c r="M11" s="70"/>
       <c r="N11" s="9"/>
       <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
       <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
+      <c r="T11" s="43"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="70"/>
       <c r="AE11" s="9"/>
-      <c r="AF11" s="70"/>
+      <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
+      <c r="AI11" s="44"/>
       <c r="AJ11" s="9"/>
-      <c r="AK11" s="44"/>
+      <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="33"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="9"/>
       <c r="AQ11" s="33"/>
       <c r="AR11" s="9"/>
-      <c r="AS11" s="33"/>
+      <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
       <c r="AU11" s="9"/>
       <c r="AV11" s="9"/>
       <c r="AW11" s="9"/>
       <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
+      <c r="AY11" s="44"/>
       <c r="AZ11" s="9"/>
-      <c r="BA11" s="44"/>
-      <c r="BB11" s="9"/>
-      <c r="BC11" s="9"/>
-      <c r="BD11" s="9">
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BE11" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="71">
+      <c r="BC11" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BG11" s="7">
+      <c r="BE11" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH11" s="3">
+      <c r="BF11" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
       <c r="BI11" s="3"/>
-      <c r="BJ11" s="3"/>
-      <c r="BK11" s="3"/>
-      <c r="BL11" s="3">
+      <c r="BJ11" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BM11" s="3" t="b">
+      <c r="BK11" s="3" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BN11" s="1"/>
-      <c r="BO11" s="1"/>
-    </row>
-    <row r="12" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+    </row>
+    <row r="12" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="29">
         <v>7</v>
       </c>
@@ -2952,7 +2975,7 @@
       </c>
       <c r="C12" s="68">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="70">
         <v>1</v>
@@ -2967,87 +2990,91 @@
       <c r="H12" s="70">
         <v>1</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="9"/>
+      <c r="I12" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="70">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
       <c r="L12" s="9"/>
       <c r="M12" s="70"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
       <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
+      <c r="T12" s="9"/>
       <c r="U12" s="70"/>
       <c r="V12" s="9"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="9"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="70"/>
       <c r="AB12" s="9"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="70"/>
       <c r="AE12" s="9"/>
-      <c r="AF12" s="70"/>
+      <c r="AF12" s="83"/>
       <c r="AG12" s="9"/>
-      <c r="AH12" s="83"/>
-      <c r="AI12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="44"/>
       <c r="AJ12" s="9"/>
-      <c r="AK12" s="44"/>
+      <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="33"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="9"/>
       <c r="AQ12" s="33"/>
       <c r="AR12" s="9"/>
-      <c r="AS12" s="33"/>
+      <c r="AS12" s="9"/>
       <c r="AT12" s="9"/>
       <c r="AU12" s="9"/>
       <c r="AV12" s="9"/>
       <c r="AW12" s="9"/>
       <c r="AX12" s="9"/>
-      <c r="AY12" s="9"/>
+      <c r="AY12" s="44"/>
       <c r="AZ12" s="9"/>
-      <c r="BA12" s="44"/>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="9">
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BE12" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="71">
+      <c r="BC12" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BG12" s="7">
+      <c r="BE12" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH12" s="3">
+      <c r="BF12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
       <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BL12" s="3">
+      <c r="BJ12" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BM12" s="3" t="b">
+      <c r="BK12" s="3" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BN12" s="1"/>
-      <c r="BO12" s="1"/>
-    </row>
-    <row r="13" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+    </row>
+    <row r="13" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="29">
         <v>8</v>
       </c>
@@ -3068,80 +3095,80 @@
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="70"/>
+      <c r="J13" s="70">
+        <v>0</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="70"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
       <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
+      <c r="T13" s="9"/>
       <c r="U13" s="70"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="9"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="70"/>
       <c r="AB13" s="9"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="70"/>
       <c r="AE13" s="9"/>
-      <c r="AF13" s="70"/>
+      <c r="AF13" s="83"/>
       <c r="AG13" s="9"/>
-      <c r="AH13" s="83"/>
-      <c r="AI13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="44"/>
       <c r="AJ13" s="9"/>
-      <c r="AK13" s="44"/>
+      <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="33"/>
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="33"/>
+      <c r="AP13" s="9"/>
       <c r="AQ13" s="33"/>
       <c r="AR13" s="9"/>
-      <c r="AS13" s="33"/>
+      <c r="AS13" s="9"/>
       <c r="AT13" s="9"/>
       <c r="AU13" s="9"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="9"/>
       <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
+      <c r="AY13" s="44"/>
       <c r="AZ13" s="9"/>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="9"/>
-      <c r="BC13" s="9"/>
-      <c r="BD13" s="9">
-        <f t="shared" ref="BD13:BD14" si="7">S13+AL13+BB13+BC13</f>
-        <v>0</v>
-      </c>
-      <c r="BE13" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="71">
-        <f t="shared" ref="BF13:BF14" si="8">BD13+BE13</f>
-        <v>0</v>
-      </c>
-      <c r="BG13" s="7">
-        <f t="shared" ref="BG13:BG14" si="9">BE13/100</f>
-        <v>0</v>
-      </c>
-      <c r="BH13" s="3">
-        <f t="shared" ref="BH13:BH14" si="10">RANK(BE13,$BE$6:$BE$25,0)</f>
-        <v>1</v>
-      </c>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9">
+        <f t="shared" ref="BB13:BB14" si="7">Q13+AJ13+AZ13+BA13</f>
+        <v>0</v>
+      </c>
+      <c r="BC13" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="71">
+        <f t="shared" ref="BD13:BD14" si="8">BB13+BC13</f>
+        <v>0</v>
+      </c>
+      <c r="BE13" s="7">
+        <f t="shared" ref="BE13:BE14" si="9">BC13/100</f>
+        <v>0</v>
+      </c>
+      <c r="BF13" s="3">
+        <f t="shared" ref="BF13:BF14" si="10">RANK(BC13,$BC$6:$BC$25,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
       <c r="BI13" s="3"/>
       <c r="BJ13" s="3"/>
       <c r="BK13" s="3"/>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="1"/>
-      <c r="BO13" s="1"/>
-    </row>
-    <row r="14" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+    </row>
+    <row r="14" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="29">
         <v>9</v>
       </c>
@@ -3155,93 +3182,187 @@
       <c r="D14" s="70">
         <v>0</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="70">
+        <v>0</v>
+      </c>
+      <c r="F14" s="70">
+        <v>0</v>
+      </c>
       <c r="G14" s="70">
         <v>0</v>
       </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="70"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="9"/>
-      <c r="AV14" s="9"/>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
-      <c r="BA14" s="44"/>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9"/>
-      <c r="BD14" s="9">
+      <c r="H14" s="70">
+        <v>0</v>
+      </c>
+      <c r="I14" s="70">
+        <v>0</v>
+      </c>
+      <c r="J14" s="70">
+        <v>0</v>
+      </c>
+      <c r="K14" s="70">
+        <v>0</v>
+      </c>
+      <c r="L14" s="70">
+        <v>0</v>
+      </c>
+      <c r="M14" s="70">
+        <v>0</v>
+      </c>
+      <c r="N14" s="70">
+        <v>0</v>
+      </c>
+      <c r="O14" s="70">
+        <v>0</v>
+      </c>
+      <c r="P14" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="70">
+        <v>0</v>
+      </c>
+      <c r="R14" s="70">
+        <v>0</v>
+      </c>
+      <c r="S14" s="70">
+        <v>0</v>
+      </c>
+      <c r="T14" s="70">
+        <v>0</v>
+      </c>
+      <c r="U14" s="70">
+        <v>0</v>
+      </c>
+      <c r="V14" s="70">
+        <v>0</v>
+      </c>
+      <c r="W14" s="70">
+        <v>0</v>
+      </c>
+      <c r="X14" s="70">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="70">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="70">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="70">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="70">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BE14" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF14" s="71">
+      <c r="BC14" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="71">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BG14" s="7">
+      <c r="BE14" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BH14" s="3">
+      <c r="BF14" s="3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
       <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
-      <c r="BK14" s="3"/>
-      <c r="BL14" s="3">
+      <c r="BJ14" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BM14" s="3" t="b">
+      <c r="BK14" s="3" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BN14" s="1"/>
-      <c r="BO14" s="1"/>
-    </row>
-    <row r="15" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+    </row>
+    <row r="15" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="29">
         <v>10</v>
       </c>
@@ -3262,86 +3383,86 @@
       </c>
       <c r="H15" s="70"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="70"/>
+      <c r="J15" s="70">
+        <v>0</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="44"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="44"/>
       <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
       <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
+      <c r="T15" s="83"/>
       <c r="U15" s="70"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="70"/>
       <c r="Y15" s="9"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="70"/>
       <c r="AB15" s="9"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="70"/>
       <c r="AE15" s="9"/>
-      <c r="AF15" s="70"/>
+      <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
       <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
+      <c r="AI15" s="44"/>
       <c r="AJ15" s="9"/>
-      <c r="AK15" s="44"/>
+      <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="9"/>
       <c r="AQ15" s="33"/>
       <c r="AR15" s="9"/>
-      <c r="AS15" s="33"/>
+      <c r="AS15" s="9"/>
       <c r="AT15" s="9"/>
       <c r="AU15" s="9"/>
       <c r="AV15" s="9"/>
       <c r="AW15" s="9"/>
       <c r="AX15" s="9"/>
-      <c r="AY15" s="9"/>
+      <c r="AY15" s="44"/>
       <c r="AZ15" s="9"/>
-      <c r="BA15" s="44"/>
-      <c r="BB15" s="9"/>
-      <c r="BC15" s="9"/>
-      <c r="BD15" s="9">
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BE15" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="71">
+      <c r="BC15" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BG15" s="7">
+      <c r="BE15" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH15" s="3">
+      <c r="BF15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
       <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BL15" s="3">
+      <c r="BJ15" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BM15" s="3" t="b">
+      <c r="BK15" s="3" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BN15" s="1"/>
-      <c r="BO15" s="1"/>
-    </row>
-    <row r="16" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+    </row>
+    <row r="16" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="29">
         <v>11</v>
       </c>
@@ -3365,39 +3486,43 @@
         <v>1</v>
       </c>
       <c r="H16" s="70"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="70"/>
+      <c r="I16" s="99">
+        <v>44821</v>
+      </c>
+      <c r="J16" s="70">
+        <v>1</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="44"/>
       <c r="M16" s="33"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="9"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="70"/>
       <c r="AE16" s="9"/>
-      <c r="AF16" s="70"/>
+      <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
+      <c r="AI16" s="44"/>
       <c r="AJ16" s="9"/>
-      <c r="AK16" s="44"/>
+      <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
       <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
       <c r="AP16" s="33"/>
       <c r="AQ16" s="33"/>
       <c r="AR16" s="33"/>
@@ -3407,45 +3532,43 @@
       <c r="AV16" s="33"/>
       <c r="AW16" s="33"/>
       <c r="AX16" s="33"/>
-      <c r="AY16" s="33"/>
-      <c r="AZ16" s="33"/>
-      <c r="BA16" s="44"/>
-      <c r="BB16" s="9"/>
-      <c r="BC16" s="33"/>
-      <c r="BD16" s="9">
+      <c r="AY16" s="44"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="33"/>
+      <c r="BB16" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BE16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="71">
+      <c r="BC16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BG16" s="7">
+      <c r="BE16" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH16" s="3">
+      <c r="BF16" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
       <c r="BI16" s="3"/>
-      <c r="BJ16" s="3"/>
-      <c r="BK16" s="3"/>
-      <c r="BL16" s="3">
+      <c r="BJ16" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BM16" s="3" t="b">
+      <c r="BK16" s="3" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BN16" s="1"/>
-      <c r="BO16" s="1"/>
-    </row>
-    <row r="17" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+    </row>
+    <row r="17" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="29">
         <v>12</v>
       </c>
@@ -3466,86 +3589,86 @@
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="44"/>
-      <c r="J17" s="70"/>
+      <c r="J17" s="70">
+        <v>0</v>
+      </c>
       <c r="K17" s="9"/>
       <c r="L17" s="83"/>
       <c r="M17" s="70"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="33"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="70"/>
       <c r="V17" s="9"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="9"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="70"/>
       <c r="AB17" s="9"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="70"/>
       <c r="AE17" s="9"/>
-      <c r="AF17" s="70"/>
+      <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
       <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
+      <c r="AI17" s="44"/>
       <c r="AJ17" s="9"/>
-      <c r="AK17" s="44"/>
+      <c r="AK17" s="9"/>
       <c r="AL17" s="9"/>
       <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="9"/>
       <c r="AQ17" s="33"/>
       <c r="AR17" s="9"/>
-      <c r="AS17" s="33"/>
+      <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
       <c r="AU17" s="9"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
       <c r="AX17" s="9"/>
-      <c r="AY17" s="9"/>
+      <c r="AY17" s="44"/>
       <c r="AZ17" s="9"/>
-      <c r="BA17" s="44"/>
-      <c r="BB17" s="9"/>
-      <c r="BC17" s="9"/>
-      <c r="BD17" s="9">
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BE17" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF17" s="71">
+      <c r="BC17" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BG17" s="7">
+      <c r="BE17" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH17" s="3">
+      <c r="BF17" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
       <c r="BI17" s="3"/>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3"/>
-      <c r="BL17" s="3">
+      <c r="BJ17" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BM17" s="3" t="b">
+      <c r="BK17" s="3" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BN17" s="1"/>
-      <c r="BO17" s="1"/>
-    </row>
-    <row r="18" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+    </row>
+    <row r="18" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="29">
         <v>13</v>
       </c>
@@ -3554,7 +3677,7 @@
       </c>
       <c r="C18" s="68">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="70">
         <v>1</v>
@@ -3569,87 +3692,91 @@
         <v>1</v>
       </c>
       <c r="H18" s="70"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="9"/>
+      <c r="I18" s="99">
+        <v>44821</v>
+      </c>
+      <c r="J18" s="70">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
       <c r="L18" s="9"/>
       <c r="M18" s="70"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
       <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
+      <c r="T18" s="43"/>
       <c r="U18" s="70"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="70"/>
       <c r="AE18" s="9"/>
-      <c r="AF18" s="70"/>
+      <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
       <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
+      <c r="AI18" s="44"/>
       <c r="AJ18" s="9"/>
-      <c r="AK18" s="44"/>
+      <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
       <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
+      <c r="AN18" s="33"/>
       <c r="AO18" s="9"/>
-      <c r="AP18" s="33"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="34"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="33"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
       <c r="AU18" s="9"/>
       <c r="AV18" s="9"/>
       <c r="AW18" s="9"/>
       <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
+      <c r="AY18" s="44"/>
       <c r="AZ18" s="9"/>
-      <c r="BA18" s="44"/>
-      <c r="BB18" s="9"/>
-      <c r="BC18" s="9"/>
-      <c r="BD18" s="9">
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BE18" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="71">
+      <c r="BC18" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BG18" s="7">
+      <c r="BE18" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH18" s="3">
+      <c r="BF18" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
       <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
-      <c r="BL18" s="3">
+      <c r="BJ18" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BM18" s="3" t="b">
+      <c r="BK18" s="3" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BN18" s="1"/>
-      <c r="BO18" s="1"/>
-    </row>
-    <row r="19" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+    </row>
+    <row r="19" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="29">
         <v>14</v>
       </c>
@@ -3658,7 +3785,7 @@
       </c>
       <c r="C19" s="68">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="70">
         <v>1</v>
@@ -3673,81 +3800,85 @@
         <v>1</v>
       </c>
       <c r="H19" s="70"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="9"/>
+      <c r="I19" s="99">
+        <v>44821</v>
+      </c>
+      <c r="J19" s="70">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="70"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
       <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
+      <c r="T19" s="43"/>
       <c r="U19" s="70"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="70"/>
       <c r="AE19" s="9"/>
-      <c r="AF19" s="70"/>
+      <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
       <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
+      <c r="AI19" s="44"/>
       <c r="AJ19" s="9"/>
-      <c r="AK19" s="44"/>
+      <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
       <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
+      <c r="AN19" s="33"/>
       <c r="AO19" s="9"/>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="9"/>
-      <c r="AR19" s="9"/>
-      <c r="AS19" s="33"/>
-      <c r="AT19" s="34"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
       <c r="AU19" s="9"/>
       <c r="AV19" s="9"/>
       <c r="AW19" s="9"/>
       <c r="AX19" s="9"/>
-      <c r="AY19" s="9"/>
+      <c r="AY19" s="44"/>
       <c r="AZ19" s="9"/>
-      <c r="BA19" s="44"/>
-      <c r="BB19" s="9"/>
-      <c r="BC19" s="9"/>
-      <c r="BD19" s="9">
-        <f t="shared" ref="BD19:BD23" si="11">S19+AL19+BB19+BC19</f>
-        <v>0</v>
-      </c>
-      <c r="BE19" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF19" s="71">
-        <f t="shared" ref="BF19:BF23" si="12">BD19+BE19</f>
-        <v>0</v>
-      </c>
-      <c r="BG19" s="7">
-        <f t="shared" ref="BG19:BG23" si="13">BE19/100</f>
-        <v>0</v>
-      </c>
-      <c r="BH19" s="3">
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9">
+        <f t="shared" ref="BB19:BB23" si="11">Q19+AJ19+AZ19+BA19</f>
+        <v>0</v>
+      </c>
+      <c r="BC19" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="71">
+        <f t="shared" ref="BD19:BD23" si="12">BB19+BC19</f>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="7">
+        <f t="shared" ref="BE19:BE23" si="13">BC19/100</f>
+        <v>0</v>
+      </c>
+      <c r="BF19" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
       <c r="BI19" s="3"/>
       <c r="BJ19" s="3"/>
       <c r="BK19" s="3"/>
-      <c r="BL19" s="3"/>
-      <c r="BM19" s="3"/>
-      <c r="BN19" s="1"/>
-      <c r="BO19" s="1"/>
-    </row>
-    <row r="20" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+    </row>
+    <row r="20" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29">
         <v>15</v>
       </c>
@@ -3771,81 +3902,83 @@
         <v>1</v>
       </c>
       <c r="H20" s="70"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="70"/>
+      <c r="I20" s="99">
+        <v>44821</v>
+      </c>
+      <c r="J20" s="70">
+        <v>1</v>
+      </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="70"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
       <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
+      <c r="T20" s="43"/>
       <c r="U20" s="70"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="70"/>
-      <c r="AD20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="70"/>
       <c r="AE20" s="9"/>
-      <c r="AF20" s="70"/>
+      <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
       <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
+      <c r="AI20" s="44"/>
       <c r="AJ20" s="9"/>
-      <c r="AK20" s="44"/>
+      <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
       <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
+      <c r="AN20" s="33"/>
       <c r="AO20" s="9"/>
-      <c r="AP20" s="33"/>
-      <c r="AQ20" s="9"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="33"/>
-      <c r="AT20" s="34"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="33"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
       <c r="AU20" s="9"/>
       <c r="AV20" s="9"/>
       <c r="AW20" s="9"/>
       <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
+      <c r="AY20" s="44"/>
       <c r="AZ20" s="9"/>
-      <c r="BA20" s="44"/>
-      <c r="BB20" s="9"/>
-      <c r="BC20" s="9"/>
-      <c r="BD20" s="9">
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BE20" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF20" s="71">
+      <c r="BC20" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="71">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BG20" s="7">
+      <c r="BE20" s="7">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH20" s="3">
+      <c r="BF20" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
       <c r="BI20" s="3"/>
       <c r="BJ20" s="3"/>
       <c r="BK20" s="3"/>
-      <c r="BL20" s="3"/>
-      <c r="BM20" s="3"/>
-      <c r="BN20" s="1"/>
-      <c r="BO20" s="1"/>
-    </row>
-    <row r="21" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+    </row>
+    <row r="21" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="29">
         <v>16</v>
       </c>
@@ -3868,80 +4001,80 @@
       </c>
       <c r="H21" s="70"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="70"/>
+      <c r="J21" s="70">
+        <v>0</v>
+      </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="70"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
       <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
+      <c r="T21" s="43"/>
       <c r="U21" s="70"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="83"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="70"/>
       <c r="AE21" s="9"/>
-      <c r="AF21" s="70"/>
+      <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
+      <c r="AI21" s="44"/>
       <c r="AJ21" s="9"/>
-      <c r="AK21" s="44"/>
+      <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
+      <c r="AN21" s="33"/>
       <c r="AO21" s="9"/>
-      <c r="AP21" s="33"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="33"/>
-      <c r="AT21" s="34"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="33"/>
+      <c r="AR21" s="34"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
       <c r="AU21" s="9"/>
       <c r="AV21" s="9"/>
       <c r="AW21" s="9"/>
       <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
+      <c r="AY21" s="44"/>
       <c r="AZ21" s="9"/>
-      <c r="BA21" s="44"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
-      <c r="BD21" s="9">
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BE21" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF21" s="71">
+      <c r="BC21" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="71">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BG21" s="7">
+      <c r="BE21" s="7">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH21" s="3">
+      <c r="BF21" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
       <c r="BI21" s="3"/>
       <c r="BJ21" s="3"/>
       <c r="BK21" s="3"/>
-      <c r="BL21" s="3"/>
-      <c r="BM21" s="3"/>
-      <c r="BN21" s="1"/>
-      <c r="BO21" s="1"/>
-    </row>
-    <row r="22" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+    </row>
+    <row r="22" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="29">
         <v>17</v>
       </c>
@@ -3962,80 +4095,80 @@
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="70"/>
+      <c r="J22" s="70">
+        <v>0</v>
+      </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="70"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
       <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
+      <c r="T22" s="43"/>
       <c r="U22" s="70"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="83"/>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="70"/>
       <c r="AE22" s="9"/>
-      <c r="AF22" s="70"/>
+      <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
       <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
+      <c r="AI22" s="44"/>
       <c r="AJ22" s="9"/>
-      <c r="AK22" s="44"/>
+      <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
+      <c r="AN22" s="33"/>
       <c r="AO22" s="9"/>
-      <c r="AP22" s="33"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="33"/>
-      <c r="AT22" s="34"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="33"/>
+      <c r="AR22" s="34"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
       <c r="AU22" s="9"/>
       <c r="AV22" s="9"/>
       <c r="AW22" s="9"/>
       <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
+      <c r="AY22" s="44"/>
       <c r="AZ22" s="9"/>
-      <c r="BA22" s="44"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9">
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BE22" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="71">
+      <c r="BC22" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="71">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BG22" s="7">
+      <c r="BE22" s="7">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH22" s="3">
+      <c r="BF22" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
       <c r="BI22" s="3"/>
       <c r="BJ22" s="3"/>
       <c r="BK22" s="3"/>
-      <c r="BL22" s="3"/>
-      <c r="BM22" s="3"/>
-      <c r="BN22" s="1"/>
-      <c r="BO22" s="1"/>
-    </row>
-    <row r="23" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
+    </row>
+    <row r="23" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="29">
         <v>18</v>
       </c>
@@ -4061,87 +4194,89 @@
       <c r="H23" s="70">
         <v>1</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="70"/>
+      <c r="I23" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" s="70">
+        <v>1</v>
+      </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="70"/>
       <c r="N23" s="71"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
       <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
+      <c r="T23" s="83"/>
       <c r="U23" s="70"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="70"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="70"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="70"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="43"/>
-      <c r="AK23" s="44"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
       <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
+      <c r="AN23" s="33"/>
       <c r="AO23" s="9"/>
-      <c r="AP23" s="33"/>
-      <c r="AQ23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="33"/>
-      <c r="AT23" s="34"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="33"/>
+      <c r="AR23" s="34"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
       <c r="AU23" s="9"/>
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
       <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
+      <c r="AY23" s="44"/>
       <c r="AZ23" s="9"/>
-      <c r="BA23" s="44"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="9">
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BE23" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF23" s="71">
+      <c r="BC23" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="71">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="BG23" s="7">
+      <c r="BE23" s="7">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="BH23" s="3">
+      <c r="BF23" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
       <c r="BI23" s="3"/>
-      <c r="BJ23" s="3"/>
-      <c r="BK23" s="3"/>
-      <c r="BL23" s="3">
+      <c r="BJ23" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BM23" s="3" t="b">
+      <c r="BK23" s="3" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BN23" s="1"/>
-      <c r="BO23" s="1"/>
-    </row>
-    <row r="24" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+    </row>
+    <row r="24" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="29">
         <v>19</v>
       </c>
@@ -4166,86 +4301,86 @@
         <v>2</v>
       </c>
       <c r="I24" s="9"/>
-      <c r="J24" s="70"/>
+      <c r="J24" s="70">
+        <v>1</v>
+      </c>
       <c r="K24" s="33"/>
       <c r="L24" s="83"/>
       <c r="M24" s="70"/>
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
       <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
+      <c r="T24" s="9"/>
       <c r="U24" s="70"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="70"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="70"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="70"/>
-      <c r="AG24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
       <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
+      <c r="AI24" s="44"/>
       <c r="AJ24" s="9"/>
-      <c r="AK24" s="44"/>
+      <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>
       <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="33"/>
+      <c r="AN24" s="33"/>
+      <c r="AO24" s="33"/>
+      <c r="AP24" s="9"/>
       <c r="AQ24" s="33"/>
-      <c r="AR24" s="9"/>
-      <c r="AS24" s="33"/>
-      <c r="AT24" s="33"/>
+      <c r="AR24" s="33"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
       <c r="AU24" s="9"/>
       <c r="AV24" s="9"/>
       <c r="AW24" s="9"/>
       <c r="AX24" s="9"/>
-      <c r="AY24" s="9"/>
+      <c r="AY24" s="44"/>
       <c r="AZ24" s="9"/>
-      <c r="BA24" s="44"/>
-      <c r="BB24" s="9"/>
-      <c r="BC24" s="9"/>
-      <c r="BD24" s="9">
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BE24" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF24" s="71">
+      <c r="BC24" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BG24" s="7">
+      <c r="BE24" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH24" s="3">
+      <c r="BF24" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
       <c r="BI24" s="3"/>
-      <c r="BJ24" s="3"/>
-      <c r="BK24" s="3"/>
-      <c r="BL24" s="3">
+      <c r="BJ24" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BM24" s="3" t="b">
+      <c r="BK24" s="3" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BN24" s="1"/>
-      <c r="BO24" s="1"/>
-    </row>
-    <row r="25" spans="1:67" ht="20.100000000000001" customHeight="1">
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+    </row>
+    <row r="25" spans="1:65" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="29">
         <v>20</v>
       </c>
@@ -4269,90 +4404,90 @@
       <c r="H25" s="70">
         <v>1</v>
       </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="70"/>
+      <c r="I25" s="91">
+        <v>44821</v>
+      </c>
+      <c r="J25" s="70">
+        <v>1</v>
+      </c>
       <c r="K25" s="9"/>
       <c r="L25" s="83"/>
       <c r="M25" s="33"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="9"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="70"/>
       <c r="Y25" s="9"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="70"/>
       <c r="AB25" s="9"/>
-      <c r="AC25" s="70"/>
-      <c r="AD25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="70"/>
       <c r="AE25" s="9"/>
-      <c r="AF25" s="70"/>
+      <c r="AF25" s="9"/>
       <c r="AG25" s="9"/>
       <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
+      <c r="AI25" s="44"/>
       <c r="AJ25" s="9"/>
-      <c r="AK25" s="44"/>
+      <c r="AK25" s="9"/>
       <c r="AL25" s="9"/>
       <c r="AM25" s="9"/>
-      <c r="AN25" s="9"/>
+      <c r="AN25" s="33"/>
       <c r="AO25" s="9"/>
-      <c r="AP25" s="33"/>
-      <c r="AQ25" s="9"/>
-      <c r="AR25" s="9"/>
-      <c r="AS25" s="33"/>
-      <c r="AT25" s="34"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="33"/>
+      <c r="AR25" s="34"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
       <c r="AU25" s="9"/>
       <c r="AV25" s="9"/>
       <c r="AW25" s="9"/>
       <c r="AX25" s="9"/>
-      <c r="AY25" s="9"/>
+      <c r="AY25" s="44"/>
       <c r="AZ25" s="9"/>
-      <c r="BA25" s="44"/>
-      <c r="BB25" s="9"/>
-      <c r="BC25" s="9"/>
-      <c r="BD25" s="9">
+      <c r="BA25" s="9"/>
+      <c r="BB25" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BE25" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF25" s="71">
+      <c r="BC25" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BG25" s="7">
+      <c r="BE25" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BH25" s="3">
+      <c r="BF25" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
       <c r="BI25" s="3"/>
-      <c r="BJ25" s="3"/>
-      <c r="BK25" s="3"/>
-      <c r="BL25" s="3">
+      <c r="BJ25" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BM25" s="3" t="b">
+      <c r="BK25" s="3" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BN25" s="1"/>
-      <c r="BO25" s="1"/>
-    </row>
-    <row r="26" spans="1:67">
-      <c r="B26" s="65" t="s">
-        <v>2</v>
-      </c>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+    </row>
+    <row r="26" spans="1:65">
+      <c r="B26" s="85"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6">
         <f>SUM(D6:D25)</f>
@@ -4374,11 +4509,11 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6">
         <f>SUM(J6:J25)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K26" s="6">
         <f>SUM(K6:K25)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6">
@@ -4391,155 +4526,161 @@
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="41" t="e">
-        <f>AVERAGE(S6:S14,S15:S25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="6">
-        <f>SUM(T6:T25)</f>
-        <v>0</v>
-      </c>
+      <c r="Q26" s="41">
+        <f>AVERAGE(Q6:Q14,Q15:Q25)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <f>SUM(R6:R25)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <f>SUM(S6:S25)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="41"/>
       <c r="U26" s="6">
         <f>SUM(U6:U25)</f>
         <v>0</v>
       </c>
-      <c r="V26" s="41"/>
-      <c r="W26" s="6">
-        <f>SUM(W6:W25)</f>
-        <v>0</v>
-      </c>
+      <c r="V26" s="6">
+        <f>SUM(V6:V25)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="6"/>
       <c r="X26" s="6">
         <f>SUM(X6:X25)</f>
         <v>0</v>
       </c>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6">
-        <f>SUM(Z6:Z25)</f>
-        <v>0</v>
-      </c>
+      <c r="Y26" s="6">
+        <f>SUM(Y6:Y25)</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="6"/>
       <c r="AA26" s="6">
         <f>SUM(AA6:AA25)</f>
         <v>0</v>
       </c>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6">
-        <f>SUM(AC6:AC25)</f>
-        <v>0</v>
-      </c>
+      <c r="AB26" s="6">
+        <f>SUM(AB6:AB25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="6"/>
       <c r="AD26" s="6">
         <f>SUM(AD6:AD25)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6">
-        <f>SUM(AF6:AF25)</f>
-        <v>0</v>
-      </c>
+      <c r="AE26" s="6">
+        <f>SUM(AE6:AE25)</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="6"/>
       <c r="AG26" s="6">
         <f>SUM(AG6:AG25)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="6">
-        <f>SUM(AI6:AI25)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="6">
-        <f>SUM(AJ6:AJ25)</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="41" t="e">
-        <f>AVERAGE(AL6:AL14,AL15:AL25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM26" s="6">
-        <f>SUM(AM6:AM25)</f>
-        <v>0</v>
-      </c>
+      <c r="AH26" s="6">
+        <f>SUM(AH6:AH25)</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="41">
+        <f>AVERAGE(AJ6:AJ14,AJ15:AJ25)</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="6">
+        <f>SUM(AK6:AK25)</f>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="6">
+        <f>SUM(AL6:AL25)</f>
+        <v>0</v>
+      </c>
+      <c r="AM26" s="41"/>
       <c r="AN26" s="6">
         <f>SUM(AN6:AN25)</f>
         <v>0</v>
       </c>
-      <c r="AO26" s="41"/>
-      <c r="AP26" s="6">
-        <f>SUM(AP6:AP25)</f>
-        <v>0</v>
-      </c>
+      <c r="AO26" s="6">
+        <f>SUM(AO6:AO25)</f>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="2"/>
       <c r="AQ26" s="6">
         <f>SUM(AQ6:AQ25)</f>
         <v>0</v>
       </c>
-      <c r="AR26" s="2"/>
-      <c r="AS26" s="6">
-        <f>SUM(AS6:AS25)</f>
-        <v>0</v>
-      </c>
+      <c r="AR26" s="6">
+        <f>SUM(AR6:AR25)</f>
+        <v>0</v>
+      </c>
+      <c r="AS26" s="2"/>
       <c r="AT26" s="6">
         <f>SUM(AT6:AT25)</f>
         <v>0</v>
       </c>
-      <c r="AU26" s="2"/>
-      <c r="AV26" s="6">
-        <f>SUM(AV6:AV25)</f>
-        <v>0</v>
-      </c>
-      <c r="AW26" s="6">
-        <f>SUM(AW6:AW25)</f>
-        <v>0</v>
-      </c>
-      <c r="AX26" s="2"/>
-      <c r="AY26" s="2"/>
-      <c r="AZ26" s="6">
-        <f>SUM(AZ6:AZ25)</f>
-        <v>0</v>
-      </c>
-      <c r="BA26" s="6"/>
-      <c r="BB26" s="41" t="e">
-        <f>AVERAGE(BB6:BB25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC26" s="41"/>
-      <c r="BE26" s="41">
-        <f>AVERAGE(BE6:BE14,BE15:BE25)</f>
-        <v>0</v>
-      </c>
-      <c r="BF26" s="41">
-        <f>AVERAGE(BF6:BF14,BF15:BF25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:67" ht="15.75" customHeight="1">
-      <c r="B27" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="41" t="e">
-        <f>S26/0.2</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AU26" s="6">
+        <f>SUM(AU6:AU25)</f>
+        <v>0</v>
+      </c>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="6">
+        <f>SUM(AX6:AX25)</f>
+        <v>0</v>
+      </c>
+      <c r="AY26" s="6"/>
+      <c r="AZ26" s="41">
+        <f>AVERAGE(AZ6:AZ25)</f>
+        <v>0</v>
+      </c>
+      <c r="BA26" s="41"/>
+      <c r="BC26" s="41">
+        <f>AVERAGE(BC6:BC14,BC15:BC25)</f>
+        <v>0</v>
+      </c>
+      <c r="BD26" s="41">
+        <f>AVERAGE(BD6:BD14,BD15:BD25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65">
+      <c r="B27" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="97">
+        <v>44814</v>
+      </c>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="97">
+        <v>44821</v>
+      </c>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="97">
+        <v>44828</v>
+      </c>
+      <c r="M27" s="96"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="97">
+        <v>44835</v>
+      </c>
+      <c r="P27" s="97">
+        <v>44836</v>
+      </c>
+      <c r="Q27" s="41">
+        <f>Q26/0.2</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
       <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
       <c r="W27" s="58"/>
       <c r="X27" s="58"/>
       <c r="Y27" s="58"/>
@@ -4553,46 +4694,37 @@
       <c r="AG27" s="58"/>
       <c r="AH27" s="58"/>
       <c r="AI27" s="58"/>
-      <c r="AJ27" s="58"/>
-      <c r="AK27" s="58"/>
-      <c r="AL27" s="41" t="e">
-        <f>AL26/0.2</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ27" s="41">
+        <f>AJ26/0.2</f>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="41"/>
       <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41"/>
+      <c r="AN27" s="16"/>
+      <c r="AO27" s="4"/>
       <c r="AP27" s="16"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="16"/>
+      <c r="AQ27" s="16"/>
+      <c r="AR27" s="4"/>
       <c r="AS27" s="16"/>
-      <c r="AT27" s="4"/>
+      <c r="AT27" s="16"/>
       <c r="AU27" s="16"/>
       <c r="AV27" s="16"/>
       <c r="AW27" s="16"/>
       <c r="AX27" s="16"/>
-      <c r="AY27" s="16"/>
-      <c r="AZ27" s="16"/>
-      <c r="BA27" s="58"/>
-      <c r="BB27" s="41" t="e">
-        <f>BB26/0.2</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AY27" s="58"/>
+      <c r="AZ27" s="41">
+        <f>AZ26/0.2</f>
+        <v>0</v>
+      </c>
+      <c r="BA27" s="41"/>
       <c r="BC27" s="41"/>
-      <c r="BD27" s="48"/>
-      <c r="BG27" s="10"/>
-    </row>
-    <row r="28" spans="1:67">
-      <c r="B28" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
+      <c r="BD27" s="41"/>
+    </row>
+    <row r="28" spans="1:65" ht="15.75" customHeight="1">
+      <c r="B28" s="65" t="s">
+        <v>2</v>
+      </c>
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
       <c r="L28" s="4"/>
@@ -4600,12 +4732,12 @@
       <c r="N28" s="58"/>
       <c r="O28" s="58"/>
       <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
       <c r="S28" s="41"/>
       <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
       <c r="W28" s="58"/>
       <c r="X28" s="58"/>
       <c r="Y28" s="58"/>
@@ -4619,46 +4751,49 @@
       <c r="AG28" s="58"/>
       <c r="AH28" s="58"/>
       <c r="AI28" s="58"/>
-      <c r="AJ28" s="58"/>
-      <c r="AK28" s="58"/>
+      <c r="AJ28" s="41"/>
+      <c r="AK28" s="41"/>
       <c r="AL28" s="41"/>
       <c r="AM28" s="41"/>
-      <c r="AN28" s="41"/>
-      <c r="AO28" s="41"/>
+      <c r="AN28" s="16"/>
+      <c r="AO28" s="4"/>
       <c r="AP28" s="16"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="16"/>
+      <c r="AQ28" s="16"/>
+      <c r="AR28" s="4"/>
       <c r="AS28" s="16"/>
-      <c r="AT28" s="4"/>
+      <c r="AT28" s="16"/>
       <c r="AU28" s="16"/>
       <c r="AV28" s="16"/>
       <c r="AW28" s="16"/>
       <c r="AX28" s="16"/>
-      <c r="AY28" s="16"/>
-      <c r="AZ28" s="16"/>
-      <c r="BA28" s="58"/>
-      <c r="BB28" s="41"/>
-      <c r="BC28" s="41"/>
-      <c r="BD28" s="48"/>
-      <c r="BG28" s="10"/>
-    </row>
-    <row r="29" spans="1:67">
-      <c r="B29" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
+      <c r="AY28" s="58"/>
+      <c r="AZ28" s="41"/>
+      <c r="BA28" s="41"/>
+      <c r="BB28" s="48"/>
+      <c r="BE28" s="10"/>
+    </row>
+    <row r="29" spans="1:65" ht="15.75" customHeight="1">
+      <c r="B29" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
       <c r="S29" s="31"/>
       <c r="T29" s="31"/>
       <c r="U29" s="31"/>
@@ -4679,109 +4814,96 @@
       <c r="AJ29" s="31"/>
       <c r="AK29" s="31"/>
       <c r="AL29" s="31"/>
-      <c r="AM29" s="31"/>
-      <c r="AN29" s="31"/>
-      <c r="AO29" s="18"/>
-      <c r="AP29" s="2"/>
-      <c r="AR29" s="22"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="2"/>
+      <c r="AP29" s="22"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
-      <c r="AY29" s="2"/>
-      <c r="AZ29" s="2"/>
-      <c r="BA29" s="31"/>
-      <c r="BB29" s="31"/>
-      <c r="BC29" s="31"/>
-      <c r="BF29" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG29" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:67" ht="15.95" customHeight="1">
-      <c r="B30" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
+      <c r="AY29" s="31"/>
+      <c r="AZ29" s="31"/>
+      <c r="BA29" s="41"/>
+      <c r="BB29" s="48"/>
+      <c r="BE29" s="10"/>
+    </row>
+    <row r="30" spans="1:65">
+      <c r="B30" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="58"/>
       <c r="H30" s="58"/>
       <c r="I30" s="58"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="16"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
       <c r="M30" s="31"/>
-      <c r="N30" s="32"/>
+      <c r="N30" s="31"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
       <c r="S30" s="31"/>
       <c r="T30" s="31"/>
       <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="31"/>
       <c r="Y30" s="32"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="31"/>
       <c r="AB30" s="32"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="31"/>
       <c r="AE30" s="32"/>
-      <c r="AF30" s="31"/>
+      <c r="AF30" s="32"/>
       <c r="AG30" s="32"/>
       <c r="AH30" s="32"/>
       <c r="AI30" s="32"/>
       <c r="AJ30" s="32"/>
       <c r="AK30" s="32"/>
       <c r="AL30" s="32"/>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="18"/>
-      <c r="AP30" s="2"/>
-      <c r="AR30" s="22"/>
+      <c r="AM30" s="18"/>
+      <c r="AN30" s="2"/>
+      <c r="AP30" s="22"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
-      <c r="AY30" s="2"/>
-      <c r="AZ30" s="2"/>
-      <c r="BA30" s="32"/>
-      <c r="BB30" s="32"/>
-      <c r="BC30" s="32"/>
-      <c r="BF30" s="19">
-        <v>85</v>
-      </c>
-      <c r="BG30" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="BH30" s="42"/>
-    </row>
-    <row r="31" spans="1:67">
-      <c r="A31" s="10"/>
-      <c r="B31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
+      <c r="AY30" s="32"/>
+      <c r="AZ30" s="32"/>
+      <c r="BA30" s="31"/>
+      <c r="BD30" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE30" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65" ht="15.95" customHeight="1">
+      <c r="B31" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="58"/>
       <c r="H31" s="58"/>
       <c r="I31" s="58"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="16"/>
       <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
+      <c r="N31" s="32"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
       <c r="S31" s="31"/>
       <c r="T31" s="31"/>
       <c r="U31" s="31"/>
@@ -4802,65 +4924,58 @@
       <c r="AJ31" s="31"/>
       <c r="AK31" s="31"/>
       <c r="AL31" s="31"/>
-      <c r="AM31" s="31"/>
-      <c r="AN31" s="31"/>
-      <c r="AO31" s="18"/>
-      <c r="AP31" s="10"/>
-      <c r="AQ31" s="10"/>
-      <c r="AR31" s="23"/>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="23"/>
+      <c r="AS31" s="10"/>
+      <c r="AT31" s="10"/>
       <c r="AU31" s="10"/>
       <c r="AV31" s="10"/>
       <c r="AW31" s="10"/>
       <c r="AX31" s="10"/>
-      <c r="AY31" s="10"/>
-      <c r="AZ31" s="10"/>
-      <c r="BA31" s="31"/>
-      <c r="BB31" s="31"/>
-      <c r="BC31" s="31"/>
-      <c r="BF31" s="19">
-        <v>70</v>
-      </c>
-      <c r="BG31" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="BH31" s="42"/>
-    </row>
-    <row r="32" spans="1:67">
+      <c r="AY31" s="31"/>
+      <c r="AZ31" s="31"/>
+      <c r="BA31" s="32"/>
+      <c r="BD31" s="19">
+        <v>85</v>
+      </c>
+      <c r="BE31" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF31" s="42"/>
+    </row>
+    <row r="32" spans="1:65">
       <c r="A32" s="10"/>
-      <c r="B32" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="53">
-        <v>20</v>
-      </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="90" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" s="121" t="s">
-        <v>166</v>
-      </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="122"/>
+      <c r="B32" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
       <c r="AB32" s="31"/>
       <c r="AC32" s="31"/>
       <c r="AD32" s="31"/>
@@ -4872,65 +4987,56 @@
       <c r="AJ32" s="31"/>
       <c r="AK32" s="31"/>
       <c r="AL32" s="31"/>
-      <c r="AM32" s="31"/>
-      <c r="AN32" s="31"/>
-      <c r="AO32" s="18"/>
-      <c r="AP32" s="10"/>
-      <c r="AQ32" s="10"/>
-      <c r="AR32" s="23"/>
+      <c r="AM32" s="18"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="23"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
       <c r="AU32" s="10"/>
       <c r="AV32" s="10"/>
       <c r="AW32" s="10"/>
       <c r="AX32" s="10"/>
-      <c r="AY32" s="10"/>
-      <c r="AZ32" s="10"/>
+      <c r="AY32" s="31"/>
+      <c r="AZ32" s="31"/>
       <c r="BA32" s="31"/>
-      <c r="BB32" s="31"/>
-      <c r="BC32" s="31"/>
-      <c r="BF32" s="19">
-        <v>50</v>
-      </c>
-      <c r="BG32" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="BH32" s="42"/>
-    </row>
-    <row r="33" spans="1:60">
+      <c r="BD32" s="19">
+        <v>70</v>
+      </c>
+      <c r="BE32" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF32" s="42"/>
+    </row>
+    <row r="33" spans="1:58" ht="15.75" customHeight="1">
       <c r="A33" s="10"/>
-      <c r="B33" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="53">
-        <v>20</v>
+      <c r="B33" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D33" s="59"/>
       <c r="E33" s="58"/>
-      <c r="F33" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="G33" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="122"/>
-      <c r="T33" s="122"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="122"/>
-      <c r="X33" s="122"/>
-      <c r="Y33" s="122"/>
-      <c r="Z33" s="122"/>
-      <c r="AA33" s="122"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="92"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
       <c r="AB33" s="31"/>
       <c r="AC33" s="31"/>
       <c r="AD33" s="31"/>
@@ -4942,212 +5048,210 @@
       <c r="AJ33" s="31"/>
       <c r="AK33" s="31"/>
       <c r="AL33" s="31"/>
-      <c r="AM33" s="31"/>
-      <c r="AN33" s="31"/>
-      <c r="AO33" s="18"/>
-      <c r="AP33" s="10"/>
+      <c r="AM33" s="18"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="23"/>
       <c r="AQ33" s="10"/>
-      <c r="AR33" s="23"/>
+      <c r="AR33" s="10"/>
       <c r="AS33" s="10"/>
       <c r="AT33" s="10"/>
       <c r="AU33" s="10"/>
       <c r="AV33" s="10"/>
       <c r="AW33" s="10"/>
       <c r="AX33" s="10"/>
-      <c r="AY33" s="10"/>
-      <c r="AZ33" s="10"/>
+      <c r="AY33" s="31"/>
+      <c r="AZ33" s="31"/>
       <c r="BA33" s="31"/>
-      <c r="BB33" s="31"/>
-      <c r="BC33" s="31"/>
-      <c r="BF33" s="20">
-        <v>49</v>
-      </c>
-      <c r="BG33" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH33" s="42"/>
-    </row>
-    <row r="34" spans="1:60">
+      <c r="BD33" s="19">
+        <v>50</v>
+      </c>
+      <c r="BE33" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF33" s="42"/>
+    </row>
+    <row r="34" spans="1:58" ht="15.75" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" s="53">
         <v>20</v>
       </c>
-      <c r="F34" s="123" t="s">
-        <v>162</v>
-      </c>
-      <c r="G34" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="122"/>
-      <c r="T34" s="122"/>
-      <c r="U34" s="122"/>
-      <c r="V34" s="122"/>
-      <c r="W34" s="122"/>
-      <c r="X34" s="122"/>
-      <c r="Y34" s="122"/>
-      <c r="Z34" s="122"/>
-      <c r="AA34" s="122"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="92"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="92"/>
+      <c r="V34" s="92"/>
+      <c r="W34" s="92"/>
+      <c r="X34" s="92"/>
+      <c r="Y34" s="92"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="10"/>
       <c r="AP34" s="13"/>
-      <c r="AQ34" s="10"/>
-      <c r="AR34" s="13"/>
+      <c r="AQ34" s="13"/>
+      <c r="AR34" s="10"/>
       <c r="AS34" s="13"/>
-      <c r="AT34" s="10"/>
+      <c r="AT34" s="13"/>
       <c r="AU34" s="13"/>
       <c r="AV34" s="13"/>
       <c r="AW34" s="13"/>
       <c r="AX34" s="13"/>
-      <c r="AY34" s="13"/>
-      <c r="AZ34" s="13"/>
-      <c r="BF34" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH34" s="45">
-        <f>SUM(BH30:BH33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:60">
+      <c r="BA34" s="31"/>
+      <c r="BD34" s="20">
+        <v>49</v>
+      </c>
+      <c r="BE34" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF34" s="42"/>
+    </row>
+    <row r="35" spans="1:58" ht="15.75" customHeight="1">
       <c r="A35" s="10"/>
-      <c r="B35" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="55">
-        <f>SUM(C32:C34)</f>
-        <v>60</v>
-      </c>
-      <c r="F35" s="123" t="s">
-        <v>164</v>
-      </c>
-      <c r="G35" s="121" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="122"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="122"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="122"/>
-      <c r="T35" s="122"/>
-      <c r="U35" s="122"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="122"/>
-      <c r="Y35" s="122"/>
-      <c r="Z35" s="122"/>
-      <c r="AA35" s="122"/>
+      <c r="B35" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="53">
+        <v>20</v>
+      </c>
+      <c r="F35" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="10"/>
       <c r="AP35" s="13"/>
-      <c r="AQ35" s="10"/>
-      <c r="AR35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="10"/>
       <c r="AS35" s="13"/>
-      <c r="AT35" s="10"/>
+      <c r="AT35" s="13"/>
       <c r="AU35" s="13"/>
       <c r="AV35" s="13"/>
       <c r="AW35" s="13"/>
       <c r="AX35" s="13"/>
-      <c r="AY35" s="13"/>
-      <c r="AZ35" s="13"/>
-      <c r="BD35" s="10"/>
-      <c r="BE35" s="10"/>
-      <c r="BF35" s="10"/>
-      <c r="BG35" s="10"/>
-    </row>
-    <row r="36" spans="1:60">
+      <c r="BD35" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF35" s="45">
+        <f>SUM(BF31:BF34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:58" ht="15.75" customHeight="1">
       <c r="A36" s="10"/>
-      <c r="B36" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="55">
-        <v>40</v>
-      </c>
-      <c r="F36" s="88">
-        <v>44660</v>
-      </c>
-      <c r="G36" s="121" t="s">
-        <v>170</v>
-      </c>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="122"/>
-      <c r="N36" s="122"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="122"/>
-      <c r="U36" s="122"/>
-      <c r="V36" s="122"/>
-      <c r="W36" s="122"/>
-      <c r="X36" s="122"/>
-      <c r="Y36" s="122"/>
-      <c r="Z36" s="122"/>
-      <c r="AA36" s="122"/>
+      <c r="B36" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="53">
+        <v>20</v>
+      </c>
+      <c r="F36" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="117"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="92"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="92"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
       <c r="AL36" s="13"/>
-      <c r="AM36" s="13"/>
       <c r="AN36" s="13"/>
+      <c r="AO36" s="10"/>
       <c r="AP36" s="13"/>
-      <c r="AQ36" s="10"/>
-      <c r="AR36" s="13"/>
+      <c r="AQ36" s="13"/>
+      <c r="AR36" s="10"/>
       <c r="AS36" s="13"/>
-      <c r="AT36" s="10"/>
+      <c r="AT36" s="13"/>
       <c r="AU36" s="13"/>
       <c r="AV36" s="13"/>
       <c r="AW36" s="13"/>
       <c r="AX36" s="13"/>
-      <c r="AY36" s="13"/>
       <c r="AZ36" s="13"/>
-      <c r="BB36" s="13"/>
-      <c r="BC36" s="13"/>
+      <c r="BB36" s="10"/>
+      <c r="BC36" s="10"/>
       <c r="BD36" s="10"/>
       <c r="BE36" s="10"/>
-      <c r="BF36" s="10"/>
-      <c r="BG36" s="10"/>
-    </row>
-    <row r="37" spans="1:60">
+    </row>
+    <row r="37" spans="1:58">
       <c r="A37" s="10"/>
-      <c r="B37" s="56" t="s">
-        <v>74</v>
+      <c r="B37" s="54" t="s">
+        <v>62</v>
       </c>
       <c r="C37" s="55">
-        <f>C35+C36</f>
-        <v>100</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
+        <f>SUM(C34:C36)</f>
+        <v>60</v>
+      </c>
+      <c r="F37" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="117"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
@@ -5167,48 +5271,54 @@
       <c r="AG37" s="14"/>
       <c r="AH37" s="14"/>
       <c r="AI37" s="14"/>
-      <c r="AJ37" s="14"/>
-      <c r="AK37" s="14"/>
+      <c r="AJ37" s="13"/>
+      <c r="AK37" s="13"/>
       <c r="AL37" s="13"/>
-      <c r="AM37" s="13"/>
+      <c r="AM37" s="14"/>
       <c r="AN37" s="13"/>
-      <c r="AO37" s="14"/>
+      <c r="AO37" s="10"/>
       <c r="AP37" s="13"/>
-      <c r="AQ37" s="10"/>
-      <c r="AR37" s="13"/>
+      <c r="AQ37" s="13"/>
+      <c r="AR37" s="10"/>
       <c r="AS37" s="13"/>
-      <c r="AT37" s="10"/>
+      <c r="AT37" s="13"/>
       <c r="AU37" s="13"/>
       <c r="AV37" s="13"/>
       <c r="AW37" s="13"/>
       <c r="AX37" s="13"/>
-      <c r="AY37" s="13"/>
+      <c r="AY37" s="14"/>
       <c r="AZ37" s="13"/>
-      <c r="BA37" s="14"/>
-      <c r="BB37" s="13"/>
-      <c r="BC37" s="13"/>
+      <c r="BA37" s="13"/>
+      <c r="BB37" s="10"/>
+      <c r="BC37" s="10"/>
       <c r="BD37" s="10"/>
       <c r="BE37" s="10"/>
-      <c r="BF37" s="10"/>
-      <c r="BG37" s="10"/>
-    </row>
-    <row r="38" spans="1:60">
+    </row>
+    <row r="38" spans="1:58">
       <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="55">
+        <v>40</v>
+      </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
+      <c r="F38" s="88">
+        <v>44660</v>
+      </c>
+      <c r="G38" s="116" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="117"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
@@ -5228,35 +5338,38 @@
       <c r="AG38" s="14"/>
       <c r="AH38" s="14"/>
       <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="14"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
       <c r="AL38" s="13"/>
-      <c r="AM38" s="13"/>
+      <c r="AM38" s="14"/>
       <c r="AN38" s="13"/>
-      <c r="AO38" s="14"/>
+      <c r="AO38" s="10"/>
       <c r="AP38" s="13"/>
-      <c r="AQ38" s="10"/>
-      <c r="AR38" s="13"/>
+      <c r="AQ38" s="13"/>
+      <c r="AR38" s="10"/>
       <c r="AS38" s="13"/>
-      <c r="AT38" s="10"/>
+      <c r="AT38" s="13"/>
       <c r="AU38" s="13"/>
       <c r="AV38" s="13"/>
       <c r="AW38" s="13"/>
       <c r="AX38" s="13"/>
-      <c r="AY38" s="13"/>
+      <c r="AY38" s="14"/>
       <c r="AZ38" s="13"/>
-      <c r="BA38" s="14"/>
-      <c r="BB38" s="13"/>
-      <c r="BC38" s="13"/>
+      <c r="BA38" s="13"/>
+      <c r="BB38" s="10"/>
+      <c r="BC38" s="10"/>
       <c r="BD38" s="10"/>
       <c r="BE38" s="10"/>
-      <c r="BF38" s="10"/>
-      <c r="BG38" s="10"/>
-    </row>
-    <row r="39" spans="1:60">
-      <c r="A39" s="45"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="14"/>
+    </row>
+    <row r="39" spans="1:58">
+      <c r="A39" s="10"/>
+      <c r="B39" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="55">
+        <f>C37+C38</f>
+        <v>100</v>
+      </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -5289,34 +5402,32 @@
       <c r="AG39" s="14"/>
       <c r="AH39" s="14"/>
       <c r="AI39" s="14"/>
-      <c r="AJ39" s="14"/>
-      <c r="AK39" s="14"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
       <c r="AL39" s="13"/>
-      <c r="AM39" s="13"/>
+      <c r="AM39" s="14"/>
       <c r="AN39" s="13"/>
-      <c r="AO39" s="14"/>
+      <c r="AO39" s="10"/>
       <c r="AP39" s="13"/>
-      <c r="AQ39" s="10"/>
-      <c r="AR39" s="13"/>
+      <c r="AQ39" s="13"/>
+      <c r="AR39" s="10"/>
       <c r="AS39" s="13"/>
-      <c r="AT39" s="10"/>
+      <c r="AT39" s="13"/>
       <c r="AU39" s="13"/>
       <c r="AV39" s="13"/>
       <c r="AW39" s="13"/>
       <c r="AX39" s="13"/>
-      <c r="AY39" s="13"/>
+      <c r="AY39" s="14"/>
       <c r="AZ39" s="13"/>
-      <c r="BA39" s="14"/>
-      <c r="BB39" s="13"/>
-      <c r="BC39" s="13"/>
+      <c r="BA39" s="13"/>
+      <c r="BB39" s="10"/>
+      <c r="BC39" s="10"/>
       <c r="BD39" s="10"/>
       <c r="BE39" s="10"/>
-      <c r="BF39" s="10"/>
-      <c r="BG39" s="10"/>
-    </row>
-    <row r="40" spans="1:60">
+    </row>
+    <row r="40" spans="1:58">
       <c r="A40" s="45"/>
-      <c r="B40" s="60"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -5350,34 +5461,32 @@
       <c r="AG40" s="14"/>
       <c r="AH40" s="14"/>
       <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="14"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="13"/>
       <c r="AL40" s="13"/>
-      <c r="AM40" s="13"/>
+      <c r="AM40" s="14"/>
       <c r="AN40" s="13"/>
-      <c r="AO40" s="14"/>
+      <c r="AO40" s="10"/>
       <c r="AP40" s="13"/>
-      <c r="AQ40" s="10"/>
-      <c r="AR40" s="13"/>
+      <c r="AQ40" s="13"/>
+      <c r="AR40" s="10"/>
       <c r="AS40" s="13"/>
-      <c r="AT40" s="10"/>
+      <c r="AT40" s="13"/>
       <c r="AU40" s="13"/>
       <c r="AV40" s="13"/>
       <c r="AW40" s="13"/>
       <c r="AX40" s="13"/>
-      <c r="AY40" s="13"/>
+      <c r="AY40" s="14"/>
       <c r="AZ40" s="13"/>
-      <c r="BA40" s="14"/>
-      <c r="BB40" s="13"/>
-      <c r="BC40" s="13"/>
+      <c r="BA40" s="13"/>
+      <c r="BB40" s="10"/>
+      <c r="BC40" s="10"/>
       <c r="BD40" s="10"/>
       <c r="BE40" s="10"/>
-      <c r="BF40" s="10"/>
-      <c r="BG40" s="10"/>
-    </row>
-    <row r="41" spans="1:60">
+    </row>
+    <row r="41" spans="1:58">
       <c r="A41" s="45"/>
-      <c r="B41" s="60"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -5411,32 +5520,30 @@
       <c r="AG41" s="14"/>
       <c r="AH41" s="14"/>
       <c r="AI41" s="14"/>
-      <c r="AJ41" s="14"/>
-      <c r="AK41" s="14"/>
+      <c r="AJ41" s="13"/>
+      <c r="AK41" s="13"/>
       <c r="AL41" s="13"/>
-      <c r="AM41" s="13"/>
+      <c r="AM41" s="14"/>
       <c r="AN41" s="13"/>
-      <c r="AO41" s="14"/>
+      <c r="AO41" s="10"/>
       <c r="AP41" s="13"/>
-      <c r="AQ41" s="10"/>
-      <c r="AR41" s="13"/>
+      <c r="AQ41" s="13"/>
+      <c r="AR41" s="10"/>
       <c r="AS41" s="13"/>
-      <c r="AT41" s="10"/>
+      <c r="AT41" s="13"/>
       <c r="AU41" s="13"/>
       <c r="AV41" s="13"/>
       <c r="AW41" s="13"/>
       <c r="AX41" s="13"/>
-      <c r="AY41" s="13"/>
+      <c r="AY41" s="14"/>
       <c r="AZ41" s="13"/>
-      <c r="BA41" s="14"/>
-      <c r="BB41" s="13"/>
-      <c r="BC41" s="13"/>
+      <c r="BA41" s="13"/>
+      <c r="BB41" s="10"/>
+      <c r="BC41" s="10"/>
       <c r="BD41" s="10"/>
       <c r="BE41" s="10"/>
-      <c r="BF41" s="10"/>
-      <c r="BG41" s="10"/>
-    </row>
-    <row r="42" spans="1:60">
+    </row>
+    <row r="42" spans="1:58">
       <c r="A42" s="45"/>
       <c r="B42" s="60"/>
       <c r="C42" s="14"/>
@@ -5472,32 +5579,30 @@
       <c r="AG42" s="14"/>
       <c r="AH42" s="14"/>
       <c r="AI42" s="14"/>
-      <c r="AJ42" s="14"/>
-      <c r="AK42" s="14"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="13"/>
       <c r="AL42" s="13"/>
-      <c r="AM42" s="13"/>
+      <c r="AM42" s="14"/>
       <c r="AN42" s="13"/>
-      <c r="AO42" s="14"/>
+      <c r="AO42" s="10"/>
       <c r="AP42" s="13"/>
-      <c r="AQ42" s="10"/>
-      <c r="AR42" s="13"/>
+      <c r="AQ42" s="13"/>
+      <c r="AR42" s="10"/>
       <c r="AS42" s="13"/>
-      <c r="AT42" s="10"/>
+      <c r="AT42" s="13"/>
       <c r="AU42" s="13"/>
       <c r="AV42" s="13"/>
       <c r="AW42" s="13"/>
       <c r="AX42" s="13"/>
-      <c r="AY42" s="13"/>
+      <c r="AY42" s="14"/>
       <c r="AZ42" s="13"/>
-      <c r="BA42" s="14"/>
-      <c r="BB42" s="13"/>
-      <c r="BC42" s="13"/>
+      <c r="BA42" s="13"/>
+      <c r="BB42" s="10"/>
+      <c r="BC42" s="10"/>
       <c r="BD42" s="10"/>
       <c r="BE42" s="10"/>
-      <c r="BF42" s="10"/>
-      <c r="BG42" s="10"/>
-    </row>
-    <row r="43" spans="1:60">
+    </row>
+    <row r="43" spans="1:58">
       <c r="A43" s="45"/>
       <c r="B43" s="60"/>
       <c r="C43" s="14"/>
@@ -5533,34 +5638,32 @@
       <c r="AG43" s="14"/>
       <c r="AH43" s="14"/>
       <c r="AI43" s="14"/>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="14"/>
+      <c r="AJ43" s="13"/>
+      <c r="AK43" s="13"/>
       <c r="AL43" s="13"/>
-      <c r="AM43" s="13"/>
+      <c r="AM43" s="14"/>
       <c r="AN43" s="13"/>
-      <c r="AO43" s="14"/>
+      <c r="AO43" s="10"/>
       <c r="AP43" s="13"/>
-      <c r="AQ43" s="10"/>
-      <c r="AR43" s="13"/>
+      <c r="AQ43" s="13"/>
+      <c r="AR43" s="10"/>
       <c r="AS43" s="13"/>
-      <c r="AT43" s="10"/>
+      <c r="AT43" s="13"/>
       <c r="AU43" s="13"/>
       <c r="AV43" s="13"/>
       <c r="AW43" s="13"/>
       <c r="AX43" s="13"/>
-      <c r="AY43" s="13"/>
+      <c r="AY43" s="14"/>
       <c r="AZ43" s="13"/>
-      <c r="BA43" s="14"/>
-      <c r="BB43" s="13"/>
-      <c r="BC43" s="13"/>
+      <c r="BA43" s="13"/>
+      <c r="BB43" s="10"/>
+      <c r="BC43" s="10"/>
       <c r="BD43" s="10"/>
       <c r="BE43" s="10"/>
-      <c r="BF43" s="10"/>
-      <c r="BG43" s="10"/>
-    </row>
-    <row r="44" spans="1:60">
+    </row>
+    <row r="44" spans="1:58">
       <c r="A44" s="45"/>
-      <c r="B44" s="61"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -5594,32 +5697,30 @@
       <c r="AG44" s="14"/>
       <c r="AH44" s="14"/>
       <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="13"/>
       <c r="AL44" s="13"/>
-      <c r="AM44" s="13"/>
+      <c r="AM44" s="14"/>
       <c r="AN44" s="13"/>
-      <c r="AO44" s="14"/>
+      <c r="AO44" s="10"/>
       <c r="AP44" s="13"/>
-      <c r="AQ44" s="10"/>
-      <c r="AR44" s="13"/>
+      <c r="AQ44" s="13"/>
+      <c r="AR44" s="10"/>
       <c r="AS44" s="13"/>
-      <c r="AT44" s="10"/>
+      <c r="AT44" s="13"/>
       <c r="AU44" s="13"/>
       <c r="AV44" s="13"/>
       <c r="AW44" s="13"/>
       <c r="AX44" s="13"/>
-      <c r="AY44" s="13"/>
+      <c r="AY44" s="14"/>
       <c r="AZ44" s="13"/>
-      <c r="BA44" s="14"/>
-      <c r="BB44" s="13"/>
-      <c r="BC44" s="13"/>
+      <c r="BA44" s="13"/>
+      <c r="BB44" s="10"/>
+      <c r="BC44" s="10"/>
       <c r="BD44" s="10"/>
       <c r="BE44" s="10"/>
-      <c r="BF44" s="10"/>
-      <c r="BG44" s="10"/>
-    </row>
-    <row r="45" spans="1:60">
+    </row>
+    <row r="45" spans="1:58">
       <c r="A45" s="45"/>
       <c r="B45" s="60"/>
       <c r="C45" s="14"/>
@@ -5655,34 +5756,32 @@
       <c r="AG45" s="14"/>
       <c r="AH45" s="14"/>
       <c r="AI45" s="14"/>
-      <c r="AJ45" s="14"/>
-      <c r="AK45" s="14"/>
+      <c r="AJ45" s="13"/>
+      <c r="AK45" s="13"/>
       <c r="AL45" s="13"/>
-      <c r="AM45" s="13"/>
+      <c r="AM45" s="14"/>
       <c r="AN45" s="13"/>
-      <c r="AO45" s="14"/>
+      <c r="AO45" s="10"/>
       <c r="AP45" s="13"/>
-      <c r="AQ45" s="10"/>
-      <c r="AR45" s="13"/>
+      <c r="AQ45" s="13"/>
+      <c r="AR45" s="10"/>
       <c r="AS45" s="13"/>
-      <c r="AT45" s="10"/>
+      <c r="AT45" s="13"/>
       <c r="AU45" s="13"/>
       <c r="AV45" s="13"/>
       <c r="AW45" s="13"/>
       <c r="AX45" s="13"/>
-      <c r="AY45" s="13"/>
+      <c r="AY45" s="14"/>
       <c r="AZ45" s="13"/>
-      <c r="BA45" s="14"/>
-      <c r="BB45" s="13"/>
-      <c r="BC45" s="13"/>
+      <c r="BA45" s="13"/>
+      <c r="BB45" s="10"/>
+      <c r="BC45" s="10"/>
       <c r="BD45" s="10"/>
       <c r="BE45" s="10"/>
-      <c r="BF45" s="10"/>
-      <c r="BG45" s="10"/>
-    </row>
-    <row r="46" spans="1:60">
+    </row>
+    <row r="46" spans="1:58">
       <c r="A46" s="45"/>
-      <c r="B46" s="60"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -5716,48 +5815,46 @@
       <c r="AG46" s="14"/>
       <c r="AH46" s="14"/>
       <c r="AI46" s="14"/>
-      <c r="AJ46" s="14"/>
-      <c r="AK46" s="14"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="13"/>
       <c r="AL46" s="13"/>
-      <c r="AM46" s="13"/>
+      <c r="AM46" s="14"/>
       <c r="AN46" s="13"/>
-      <c r="AO46" s="14"/>
+      <c r="AO46" s="10"/>
       <c r="AP46" s="13"/>
-      <c r="AQ46" s="10"/>
-      <c r="AR46" s="13"/>
+      <c r="AQ46" s="13"/>
+      <c r="AR46" s="10"/>
       <c r="AS46" s="13"/>
-      <c r="AT46" s="10"/>
+      <c r="AT46" s="13"/>
       <c r="AU46" s="13"/>
       <c r="AV46" s="13"/>
       <c r="AW46" s="13"/>
       <c r="AX46" s="13"/>
-      <c r="AY46" s="13"/>
+      <c r="AY46" s="14"/>
       <c r="AZ46" s="13"/>
-      <c r="BA46" s="14"/>
-      <c r="BB46" s="13"/>
-      <c r="BC46" s="13"/>
+      <c r="BA46" s="13"/>
+      <c r="BB46" s="10"/>
+      <c r="BC46" s="10"/>
       <c r="BD46" s="10"/>
       <c r="BE46" s="10"/>
-      <c r="BF46" s="10"/>
-      <c r="BG46" s="10"/>
-    </row>
-    <row r="47" spans="1:60">
+    </row>
+    <row r="47" spans="1:58">
       <c r="A47" s="45"/>
       <c r="B47" s="60"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
       <c r="L47" s="10"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
@@ -5777,48 +5874,46 @@
       <c r="AG47" s="15"/>
       <c r="AH47" s="15"/>
       <c r="AI47" s="15"/>
-      <c r="AJ47" s="15"/>
-      <c r="AK47" s="15"/>
+      <c r="AJ47" s="13"/>
+      <c r="AK47" s="13"/>
       <c r="AL47" s="13"/>
-      <c r="AM47" s="13"/>
+      <c r="AM47" s="15"/>
       <c r="AN47" s="13"/>
-      <c r="AO47" s="15"/>
+      <c r="AO47" s="10"/>
       <c r="AP47" s="13"/>
-      <c r="AQ47" s="10"/>
-      <c r="AR47" s="13"/>
+      <c r="AQ47" s="13"/>
+      <c r="AR47" s="10"/>
       <c r="AS47" s="13"/>
-      <c r="AT47" s="10"/>
+      <c r="AT47" s="13"/>
       <c r="AU47" s="13"/>
       <c r="AV47" s="13"/>
       <c r="AW47" s="13"/>
       <c r="AX47" s="13"/>
-      <c r="AY47" s="13"/>
+      <c r="AY47" s="15"/>
       <c r="AZ47" s="13"/>
-      <c r="BA47" s="15"/>
-      <c r="BB47" s="13"/>
-      <c r="BC47" s="13"/>
+      <c r="BA47" s="13"/>
+      <c r="BB47" s="10"/>
+      <c r="BC47" s="10"/>
       <c r="BD47" s="10"/>
       <c r="BE47" s="10"/>
-      <c r="BF47" s="10"/>
-      <c r="BG47" s="10"/>
-    </row>
-    <row r="48" spans="1:60">
+    </row>
+    <row r="48" spans="1:58">
       <c r="A48" s="45"/>
       <c r="B48" s="60"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
       <c r="L48" s="10"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
@@ -5838,34 +5933,32 @@
       <c r="AG48" s="14"/>
       <c r="AH48" s="14"/>
       <c r="AI48" s="14"/>
-      <c r="AJ48" s="14"/>
-      <c r="AK48" s="14"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="13"/>
       <c r="AL48" s="13"/>
-      <c r="AM48" s="13"/>
+      <c r="AM48" s="14"/>
       <c r="AN48" s="13"/>
-      <c r="AO48" s="14"/>
+      <c r="AO48" s="10"/>
       <c r="AP48" s="13"/>
-      <c r="AQ48" s="10"/>
-      <c r="AR48" s="13"/>
+      <c r="AQ48" s="13"/>
+      <c r="AR48" s="10"/>
       <c r="AS48" s="13"/>
-      <c r="AT48" s="10"/>
+      <c r="AT48" s="13"/>
       <c r="AU48" s="13"/>
       <c r="AV48" s="13"/>
       <c r="AW48" s="13"/>
       <c r="AX48" s="13"/>
-      <c r="AY48" s="13"/>
+      <c r="AY48" s="14"/>
       <c r="AZ48" s="13"/>
-      <c r="BA48" s="14"/>
-      <c r="BB48" s="13"/>
-      <c r="BC48" s="13"/>
+      <c r="BA48" s="13"/>
+      <c r="BB48" s="10"/>
+      <c r="BC48" s="10"/>
       <c r="BD48" s="10"/>
       <c r="BE48" s="10"/>
-      <c r="BF48" s="10"/>
-      <c r="BG48" s="10"/>
-    </row>
-    <row r="49" spans="1:59">
+    </row>
+    <row r="49" spans="1:57">
       <c r="A49" s="45"/>
-      <c r="B49" s="62"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -5899,48 +5992,46 @@
       <c r="AG49" s="14"/>
       <c r="AH49" s="14"/>
       <c r="AI49" s="14"/>
-      <c r="AJ49" s="14"/>
-      <c r="AK49" s="14"/>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="13"/>
       <c r="AL49" s="13"/>
-      <c r="AM49" s="13"/>
+      <c r="AM49" s="14"/>
       <c r="AN49" s="13"/>
-      <c r="AO49" s="14"/>
+      <c r="AO49" s="10"/>
       <c r="AP49" s="13"/>
-      <c r="AQ49" s="10"/>
-      <c r="AR49" s="13"/>
+      <c r="AQ49" s="13"/>
+      <c r="AR49" s="10"/>
       <c r="AS49" s="13"/>
-      <c r="AT49" s="10"/>
+      <c r="AT49" s="13"/>
       <c r="AU49" s="13"/>
       <c r="AV49" s="13"/>
       <c r="AW49" s="13"/>
       <c r="AX49" s="13"/>
-      <c r="AY49" s="13"/>
+      <c r="AY49" s="14"/>
       <c r="AZ49" s="13"/>
-      <c r="BA49" s="14"/>
-      <c r="BB49" s="13"/>
-      <c r="BC49" s="13"/>
+      <c r="BA49" s="13"/>
+      <c r="BB49" s="10"/>
+      <c r="BC49" s="10"/>
       <c r="BD49" s="10"/>
       <c r="BE49" s="10"/>
-      <c r="BF49" s="10"/>
-      <c r="BG49" s="10"/>
-    </row>
-    <row r="50" spans="1:59">
-      <c r="A50" s="10"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
+    </row>
+    <row r="50" spans="1:57">
+      <c r="A50" s="45"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
       <c r="L50" s="10"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
       <c r="Q50" s="15"/>
       <c r="R50" s="15"/>
       <c r="S50" s="15"/>
@@ -5960,34 +6051,32 @@
       <c r="AG50" s="15"/>
       <c r="AH50" s="15"/>
       <c r="AI50" s="15"/>
-      <c r="AJ50" s="15"/>
-      <c r="AK50" s="15"/>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="13"/>
       <c r="AL50" s="13"/>
-      <c r="AM50" s="13"/>
+      <c r="AM50" s="15"/>
       <c r="AN50" s="13"/>
-      <c r="AO50" s="15"/>
+      <c r="AO50" s="10"/>
       <c r="AP50" s="13"/>
-      <c r="AQ50" s="10"/>
-      <c r="AR50" s="13"/>
+      <c r="AQ50" s="13"/>
+      <c r="AR50" s="10"/>
       <c r="AS50" s="13"/>
-      <c r="AT50" s="10"/>
+      <c r="AT50" s="13"/>
       <c r="AU50" s="13"/>
       <c r="AV50" s="13"/>
       <c r="AW50" s="13"/>
       <c r="AX50" s="13"/>
-      <c r="AY50" s="13"/>
+      <c r="AY50" s="15"/>
       <c r="AZ50" s="13"/>
-      <c r="BA50" s="15"/>
-      <c r="BB50" s="13"/>
-      <c r="BC50" s="13"/>
+      <c r="BA50" s="13"/>
+      <c r="BB50" s="10"/>
+      <c r="BC50" s="10"/>
       <c r="BD50" s="10"/>
       <c r="BE50" s="10"/>
-      <c r="BF50" s="10"/>
-      <c r="BG50" s="10"/>
-    </row>
-    <row r="51" spans="1:59">
-      <c r="A51" s="47"/>
-      <c r="B51" s="63"/>
+    </row>
+    <row r="51" spans="1:57">
+      <c r="A51" s="10"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -6021,32 +6110,30 @@
       <c r="AG51" s="15"/>
       <c r="AH51" s="15"/>
       <c r="AI51" s="15"/>
-      <c r="AJ51" s="15"/>
-      <c r="AK51" s="15"/>
+      <c r="AJ51" s="13"/>
+      <c r="AK51" s="13"/>
       <c r="AL51" s="13"/>
-      <c r="AM51" s="13"/>
+      <c r="AM51" s="15"/>
       <c r="AN51" s="13"/>
-      <c r="AO51" s="15"/>
+      <c r="AO51" s="10"/>
       <c r="AP51" s="13"/>
-      <c r="AQ51" s="10"/>
-      <c r="AR51" s="13"/>
+      <c r="AQ51" s="13"/>
+      <c r="AR51" s="10"/>
       <c r="AS51" s="13"/>
-      <c r="AT51" s="10"/>
+      <c r="AT51" s="13"/>
       <c r="AU51" s="13"/>
       <c r="AV51" s="13"/>
       <c r="AW51" s="13"/>
       <c r="AX51" s="13"/>
-      <c r="AY51" s="13"/>
+      <c r="AY51" s="15"/>
       <c r="AZ51" s="13"/>
-      <c r="BA51" s="15"/>
-      <c r="BB51" s="13"/>
-      <c r="BC51" s="13"/>
+      <c r="BA51" s="13"/>
+      <c r="BB51" s="10"/>
+      <c r="BC51" s="10"/>
       <c r="BD51" s="10"/>
       <c r="BE51" s="10"/>
-      <c r="BF51" s="10"/>
-      <c r="BG51" s="10"/>
-    </row>
-    <row r="52" spans="1:59">
+    </row>
+    <row r="52" spans="1:57">
       <c r="A52" s="47"/>
       <c r="B52" s="63"/>
       <c r="C52" s="15"/>
@@ -6082,32 +6169,30 @@
       <c r="AG52" s="15"/>
       <c r="AH52" s="15"/>
       <c r="AI52" s="15"/>
-      <c r="AJ52" s="15"/>
-      <c r="AK52" s="15"/>
+      <c r="AJ52" s="13"/>
+      <c r="AK52" s="13"/>
       <c r="AL52" s="13"/>
-      <c r="AM52" s="13"/>
+      <c r="AM52" s="15"/>
       <c r="AN52" s="13"/>
-      <c r="AO52" s="15"/>
+      <c r="AO52" s="10"/>
       <c r="AP52" s="13"/>
-      <c r="AQ52" s="10"/>
-      <c r="AR52" s="13"/>
+      <c r="AQ52" s="13"/>
+      <c r="AR52" s="10"/>
       <c r="AS52" s="13"/>
-      <c r="AT52" s="10"/>
+      <c r="AT52" s="13"/>
       <c r="AU52" s="13"/>
       <c r="AV52" s="13"/>
       <c r="AW52" s="13"/>
       <c r="AX52" s="13"/>
-      <c r="AY52" s="13"/>
+      <c r="AY52" s="15"/>
       <c r="AZ52" s="13"/>
-      <c r="BA52" s="15"/>
-      <c r="BB52" s="13"/>
-      <c r="BC52" s="13"/>
+      <c r="BA52" s="13"/>
+      <c r="BB52" s="10"/>
+      <c r="BC52" s="10"/>
       <c r="BD52" s="10"/>
       <c r="BE52" s="10"/>
-      <c r="BF52" s="10"/>
-      <c r="BG52" s="10"/>
-    </row>
-    <row r="53" spans="1:59">
+    </row>
+    <row r="53" spans="1:57">
       <c r="A53" s="47"/>
       <c r="B53" s="63"/>
       <c r="C53" s="15"/>
@@ -6143,125 +6228,145 @@
       <c r="AG53" s="15"/>
       <c r="AH53" s="15"/>
       <c r="AI53" s="15"/>
-      <c r="AJ53" s="15"/>
-      <c r="AK53" s="15"/>
+      <c r="AJ53" s="13"/>
+      <c r="AK53" s="13"/>
       <c r="AL53" s="13"/>
-      <c r="AM53" s="13"/>
+      <c r="AM53" s="15"/>
       <c r="AN53" s="13"/>
-      <c r="AO53" s="15"/>
+      <c r="AO53" s="10"/>
       <c r="AP53" s="13"/>
-      <c r="AQ53" s="10"/>
-      <c r="AR53" s="13"/>
+      <c r="AQ53" s="13"/>
+      <c r="AR53" s="10"/>
       <c r="AS53" s="13"/>
-      <c r="AT53" s="10"/>
+      <c r="AT53" s="13"/>
       <c r="AU53" s="13"/>
       <c r="AV53" s="13"/>
       <c r="AW53" s="13"/>
       <c r="AX53" s="13"/>
-      <c r="AY53" s="13"/>
+      <c r="AY53" s="15"/>
       <c r="AZ53" s="13"/>
-      <c r="BA53" s="15"/>
-      <c r="BB53" s="13"/>
-      <c r="BC53" s="13"/>
+      <c r="BA53" s="13"/>
+      <c r="BB53" s="10"/>
+      <c r="BC53" s="10"/>
       <c r="BD53" s="10"/>
       <c r="BE53" s="10"/>
-      <c r="BF53" s="10"/>
-      <c r="BG53" s="10"/>
-    </row>
-    <row r="54" spans="1:59">
+    </row>
+    <row r="54" spans="1:57">
       <c r="A54" s="47"/>
       <c r="B54" s="63"/>
-      <c r="C54" s="13"/>
-    </row>
-    <row r="55" spans="1:59">
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="BA54" s="13"/>
+      <c r="BB54" s="10"/>
+      <c r="BC54" s="10"/>
+      <c r="BD54" s="10"/>
+      <c r="BE54" s="10"/>
+    </row>
+    <row r="55" spans="1:57">
       <c r="A55" s="47"/>
       <c r="B55" s="63"/>
       <c r="C55" s="13"/>
     </row>
-    <row r="56" spans="1:59">
+    <row r="56" spans="1:57">
       <c r="A56" s="47"/>
       <c r="B56" s="63"/>
       <c r="C56" s="13"/>
     </row>
-    <row r="57" spans="1:59">
+    <row r="57" spans="1:57">
       <c r="A57" s="47"/>
-      <c r="B57" s="64"/>
+      <c r="B57" s="63"/>
       <c r="C57" s="13"/>
     </row>
+    <row r="58" spans="1:57">
+      <c r="A58" s="47"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="13"/>
+    </row>
+    <row r="59" spans="1:57">
+      <c r="B59" s="64"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:BL37">
-    <filterColumn colId="15"/>
-    <filterColumn colId="16"/>
-    <filterColumn colId="34"/>
-    <filterColumn colId="35"/>
-    <filterColumn colId="38"/>
-    <filterColumn colId="39"/>
+  <autoFilter ref="A5:BJ38">
+    <filterColumn colId="32"/>
+    <filterColumn colId="33"/>
+    <filterColumn colId="36"/>
+    <filterColumn colId="37"/>
+    <filterColumn colId="45"/>
+    <filterColumn colId="46"/>
     <filterColumn colId="47"/>
     <filterColumn colId="48"/>
     <filterColumn colId="49"/>
-    <filterColumn colId="50"/>
-    <filterColumn colId="51"/>
   </autoFilter>
   <sortState ref="B4:C24">
     <sortCondition ref="B4:B24"/>
   </sortState>
-  <mergeCells count="53">
-    <mergeCell ref="G32:AA32"/>
-    <mergeCell ref="G33:AA33"/>
-    <mergeCell ref="G34:AA34"/>
-    <mergeCell ref="G35:AA35"/>
-    <mergeCell ref="G36:AA36"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T4:V4"/>
+  <mergeCells count="51">
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="G34:P34"/>
+    <mergeCell ref="G35:P35"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="G36:P36"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="G37:P37"/>
+    <mergeCell ref="AD4:AH4"/>
+    <mergeCell ref="G38:P38"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="BF3:BF5"/>
+    <mergeCell ref="BC3:BC5"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="BE3:BE5"/>
+    <mergeCell ref="BD3:BD5"/>
+    <mergeCell ref="BB3:BB5"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AT4:AX4"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="AY4:AZ4"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="BH3:BH5"/>
-    <mergeCell ref="BE3:BE5"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="BG3:BG5"/>
-    <mergeCell ref="BF3:BF5"/>
-    <mergeCell ref="BD3:BD5"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="AV4:AZ4"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="A1:BG1"/>
-    <mergeCell ref="A2:BG2"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="A1:BE1"/>
+    <mergeCell ref="A2:BE2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="AS4:AU4"/>
-    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <conditionalFormatting sqref="BA16:BA17 AU23:BA23 BC15:BD25 BJ5:BK5 AR6:AR8 BA11 BB6:BD14 BA8:BA9 N24:N25 R16 O16:Q25 AH15:AJ25 AK16:BC16 AG6:AG8 AG10:AG25 N15:N22 S6:U25 V6:V7 V9:V25 W6:AA25 AB12:AB25 AB6:AB9 AC6:AF25 AK9 AL6:AQ25 AI6:AJ14 AH6:AH7 AH9:AH14 I24 I18:I22 F24:F25 L17:L25 M15:M25 E9:E25 J15:K25 E6:E7 I8:I9 I12:I14 J6:Q14 AR10:AR25 AS6:AZ25 BB7:BB25 D6:D25 G6:H25 BD7:BD25 F12:F14 F17:F22 F6:F9">
-    <cfRule type="colorScale" priority="1571">
+  <conditionalFormatting sqref="AY16:AY17 AS23:AY23 BA15:BB25 BH5:BI5 AP6:AP8 AY11 AZ6:BB14 AY8:AY9 P16 AF15:AH25 AI16:BA16 AE6:AE8 AE10:AE25 Q6:S25 T6:T7 T9:T25 U6:Y25 Z12:Z25 Z6:Z9 AA6:AD25 AI9 AJ6:AO25 AG6:AH14 AF6:AF7 AF9:AF14 AP10:AP25 AQ6:AX25 AZ7:AZ25 BB7:BB25 F34:F35 N24:N25 O16:O25 N15:N22 E14:BA14 F24:F25 L17:L25 M15:M25 E9:E25 J15:K25 E6:E7 J6:O14 D6:D25 G6:H25 F12:F14 F6:F9 F16:F22 D27:E27 G27:H27 J27:K27 M27:N27 J7:J25 I21:I24 I12:I14 I8">
+    <cfRule type="colorScale" priority="1575">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6270,161 +6375,51 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF30:BF32">
-    <cfRule type="cellIs" dxfId="8" priority="1446" operator="between">
+  <conditionalFormatting sqref="BD31:BD33">
+    <cfRule type="cellIs" dxfId="8" priority="1450" operator="between">
       <formula>85</formula>
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1447" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="1451" operator="between">
       <formula>70</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1448" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="1452" operator="between">
       <formula>50</formula>
       <formula>69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF33 BE6:BF25">
-    <cfRule type="cellIs" dxfId="5" priority="681" operator="between">
+  <conditionalFormatting sqref="BD34 BC6:BD25">
+    <cfRule type="cellIs" dxfId="5" priority="685" operator="between">
       <formula>70</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="683" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="687" operator="between">
       <formula>50</formula>
       <formula>69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="684" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="688" operator="between">
       <formula>0</formula>
       <formula>49</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF33 BE6:BF25">
-    <cfRule type="cellIs" dxfId="2" priority="675" operator="between">
+  <conditionalFormatting sqref="BD34 BC6:BD25">
+    <cfRule type="cellIs" dxfId="2" priority="679" operator="between">
       <formula>85</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE6:BE25">
-    <cfRule type="cellIs" dxfId="1" priority="83" operator="lessThan">
+  <conditionalFormatting sqref="BC6:BC25">
+    <cfRule type="cellIs" dxfId="1" priority="87" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="84" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="88" operator="greaterThanOrEqual">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFCCFFCC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFCCFFCC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFCCFFCC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFCCFFCC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFCCFFCC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFCCFFCC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFCCFFCC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFCCFFCC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFCCFFCC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFCCFFCC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFCCFFCC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1"/>
-    <hyperlink ref="C27" r:id="rId2"/>
+    <hyperlink ref="C32" r:id="rId1"/>
+    <hyperlink ref="C29" r:id="rId2"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6457,29 +6452,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114" t="s">
+      <c r="A1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
     </row>
     <row r="2" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
       <c r="D2" s="74">
         <v>1</v>
       </c>
@@ -6503,23 +6498,23 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="113" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
     </row>
     <row r="4" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="74">
         <v>3</v>
       </c>
@@ -6963,29 +6958,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114" t="s">
+      <c r="A1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
     </row>
     <row r="2" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
       <c r="D2" s="74">
         <v>1</v>
       </c>
@@ -7009,23 +7004,23 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="113" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
     </row>
     <row r="4" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="74">
         <v>3</v>
       </c>
@@ -7472,29 +7467,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114" t="s">
+      <c r="A1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
     </row>
     <row r="2" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
       <c r="D2" s="74">
         <v>1</v>
       </c>
@@ -7518,23 +7513,23 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="113" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
     </row>
     <row r="4" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="74">
         <v>3</v>
       </c>
@@ -8436,42 +8431,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18" customHeight="1">
-      <c r="A1" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="119" t="s">
+      <c r="A1" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="116"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="116"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="126"/>
     </row>
     <row r="2" spans="1:28" ht="18" customHeight="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="120"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="130"/>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>

--- a/Диффуры/Кс-24_Электронный журнал Учебный год_2022_23_1й семестр_Дисциплина_Высшая математика.xlsx
+++ b/Диффуры/Кс-24_Электронный журнал Учебный год_2022_23_1й семестр_Дисциплина_Высшая математика.xlsx
@@ -1320,38 +1320,38 @@
     <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1783,7 +1783,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2760" activePane="bottomLeft"/>
       <selection activeCell="P5" sqref="P1:Q1048576"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -2055,13 +2055,13 @@
       <c r="BA3" s="79">
         <v>44922</v>
       </c>
-      <c r="BB3" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="109" t="s">
+      <c r="BB3" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BD3" s="110" t="s">
+      <c r="BD3" s="109" t="s">
         <v>73</v>
       </c>
       <c r="BE3" s="101" t="s">
@@ -2159,9 +2159,9 @@
       <c r="BA4" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="BB4" s="114"/>
-      <c r="BC4" s="109"/>
-      <c r="BD4" s="111"/>
+      <c r="BB4" s="113"/>
+      <c r="BC4" s="108"/>
+      <c r="BD4" s="110"/>
       <c r="BE4" s="101"/>
       <c r="BF4" s="101"/>
     </row>
@@ -2319,9 +2319,9 @@
       <c r="BA5" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="BB5" s="115"/>
-      <c r="BC5" s="109"/>
-      <c r="BD5" s="112"/>
+      <c r="BB5" s="114"/>
+      <c r="BC5" s="108"/>
+      <c r="BD5" s="111"/>
       <c r="BE5" s="101"/>
       <c r="BF5" s="101"/>
       <c r="BG5" s="8" t="s">
@@ -2368,7 +2368,9 @@
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="70"/>
+      <c r="M6" s="70">
+        <v>1</v>
+      </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="44"/>
@@ -2473,8 +2475,12 @@
         <v>1</v>
       </c>
       <c r="K7" s="9"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="70"/>
+      <c r="L7" s="99">
+        <v>44828</v>
+      </c>
+      <c r="M7" s="70">
+        <v>1</v>
+      </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="44"/>
@@ -2581,8 +2587,12 @@
       <c r="K8" s="9">
         <v>1</v>
       </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="70"/>
+      <c r="L8" s="99">
+        <v>44828</v>
+      </c>
+      <c r="M8" s="70">
+        <v>1</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="44"/>
@@ -2665,7 +2675,7 @@
       </c>
       <c r="C9" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="70">
         <v>0</v>
@@ -2686,8 +2696,12 @@
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="9"/>
+      <c r="M9" s="70">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9">
+        <v>1</v>
+      </c>
       <c r="O9" s="9"/>
       <c r="P9" s="44"/>
       <c r="Q9" s="70"/>
@@ -2769,7 +2783,7 @@
       </c>
       <c r="C10" s="68">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="70">
         <v>1</v>
@@ -2791,9 +2805,15 @@
         <v>1</v>
       </c>
       <c r="K10" s="9"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="9"/>
+      <c r="L10" s="99">
+        <v>44828</v>
+      </c>
+      <c r="M10" s="70">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9">
+        <v>1</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="70"/>
@@ -2892,8 +2912,12 @@
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="83"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="9"/>
+      <c r="M11" s="70">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
       <c r="O11" s="43"/>
       <c r="P11" s="44"/>
       <c r="Q11" s="70"/>
@@ -2975,7 +2999,7 @@
       </c>
       <c r="C12" s="68">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="70">
         <v>1</v>
@@ -2999,9 +3023,15 @@
       <c r="K12" s="9">
         <v>1</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="9"/>
+      <c r="L12" s="99">
+        <v>44828</v>
+      </c>
+      <c r="M12" s="70">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="70"/>
@@ -3100,7 +3130,9 @@
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="70"/>
+      <c r="M13" s="70">
+        <v>0</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="44"/>
@@ -3388,8 +3420,12 @@
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="44"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
       <c r="O15" s="44"/>
       <c r="P15" s="44"/>
       <c r="Q15" s="70"/>
@@ -3471,7 +3507,7 @@
       </c>
       <c r="C16" s="68">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="70">
         <v>1</v>
@@ -3493,9 +3529,15 @@
         <v>1</v>
       </c>
       <c r="K16" s="9"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="9"/>
+      <c r="L16" s="99">
+        <v>44828</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="70"/>
@@ -3594,7 +3636,9 @@
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="83"/>
-      <c r="M17" s="70"/>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="44"/>
@@ -3677,7 +3721,7 @@
       </c>
       <c r="C18" s="68">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="70">
         <v>1</v>
@@ -3701,9 +3745,15 @@
       <c r="K18" s="9">
         <v>1</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="9"/>
+      <c r="L18" s="99">
+        <v>44828</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1</v>
+      </c>
+      <c r="N18" s="9">
+        <v>1</v>
+      </c>
       <c r="O18" s="9"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="70"/>
@@ -3809,8 +3859,12 @@
       <c r="K19" s="9">
         <v>1</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="70"/>
+      <c r="L19" s="99">
+        <v>44828</v>
+      </c>
+      <c r="M19" s="9">
+        <v>1</v>
+      </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="44"/>
@@ -3909,8 +3963,12 @@
         <v>1</v>
       </c>
       <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="70"/>
+      <c r="L20" s="99">
+        <v>44828</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="44"/>
@@ -4006,7 +4064,9 @@
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="70"/>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="44"/>
@@ -4100,8 +4160,12 @@
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="9"/>
+      <c r="M22" s="9">
+        <v>1</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
       <c r="O22" s="9"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="70"/>
@@ -4201,8 +4265,12 @@
         <v>1</v>
       </c>
       <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="70"/>
+      <c r="L23" s="99">
+        <v>44828</v>
+      </c>
+      <c r="M23" s="9">
+        <v>1</v>
+      </c>
       <c r="N23" s="71"/>
       <c r="O23" s="9"/>
       <c r="P23" s="44"/>
@@ -4305,8 +4373,12 @@
         <v>1</v>
       </c>
       <c r="K24" s="33"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="70"/>
+      <c r="L24" s="99">
+        <v>44828</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
       <c r="P24" s="44"/>
@@ -4389,7 +4461,7 @@
       </c>
       <c r="C25" s="68">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="70">
         <v>0</v>
@@ -4411,9 +4483,15 @@
         <v>1</v>
       </c>
       <c r="K25" s="9"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="9"/>
+      <c r="L25" s="99">
+        <v>44828</v>
+      </c>
+      <c r="M25" s="9">
+        <v>1</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1</v>
+      </c>
       <c r="O25" s="9"/>
       <c r="P25" s="44"/>
       <c r="Q25" s="70"/>
@@ -4518,11 +4596,11 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6">
         <f>SUM(M6:M25)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N26" s="6">
         <f>SUM(N6:N25)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -4776,15 +4854,15 @@
       <c r="B29" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="118" t="s">
+      <c r="C29" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
       <c r="L29" s="4"/>
@@ -4950,12 +5028,12 @@
       <c r="B32" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="108" t="s">
+      <c r="C32" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
       <c r="G32" s="58"/>
       <c r="H32" s="58"/>
       <c r="I32" s="58"/>
@@ -5084,18 +5162,18 @@
       <c r="F34" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="116" t="s">
+      <c r="G34" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="117"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
       <c r="Q34" s="92"/>
       <c r="R34" s="92"/>
       <c r="S34" s="92"/>
@@ -5136,18 +5214,18 @@
       <c r="F35" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="116" t="s">
+      <c r="G35" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="116"/>
       <c r="Q35" s="92"/>
       <c r="R35" s="92"/>
       <c r="S35" s="92"/>
@@ -5187,18 +5265,18 @@
       <c r="F36" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="G36" s="116" t="s">
+      <c r="G36" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="117"/>
-      <c r="O36" s="117"/>
-      <c r="P36" s="117"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
       <c r="Q36" s="92"/>
       <c r="R36" s="92"/>
       <c r="S36" s="92"/>
@@ -5240,18 +5318,18 @@
       <c r="F37" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="G37" s="116" t="s">
+      <c r="G37" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="117"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="117"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="116"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
@@ -5307,18 +5385,18 @@
       <c r="F38" s="88">
         <v>44660</v>
       </c>
-      <c r="G38" s="116" t="s">
+      <c r="G38" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="117"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="116"/>
+      <c r="P38" s="116"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
@@ -6313,18 +6391,13 @@
     <sortCondition ref="B4:B24"/>
   </sortState>
   <mergeCells count="51">
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="D4:F4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="U3:W3"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="G34:P34"/>
-    <mergeCell ref="G35:P35"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:T4"/>
     <mergeCell ref="G36:P36"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="G37:P37"/>
@@ -6333,6 +6406,13 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:T3"/>
+    <mergeCell ref="G34:P34"/>
+    <mergeCell ref="G35:P35"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:T4"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="BF3:BF5"/>
     <mergeCell ref="BC3:BC5"/>
@@ -6346,8 +6426,6 @@
     <mergeCell ref="AT4:AX4"/>
     <mergeCell ref="AY3:AZ3"/>
     <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="A1:BE1"/>
     <mergeCell ref="A2:BE2"/>
     <mergeCell ref="A3:A5"/>
@@ -6365,7 +6443,7 @@
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <conditionalFormatting sqref="AY16:AY17 AS23:AY23 BA15:BB25 BH5:BI5 AP6:AP8 AY11 AZ6:BB14 AY8:AY9 P16 AF15:AH25 AI16:BA16 AE6:AE8 AE10:AE25 Q6:S25 T6:T7 T9:T25 U6:Y25 Z12:Z25 Z6:Z9 AA6:AD25 AI9 AJ6:AO25 AG6:AH14 AF6:AF7 AF9:AF14 AP10:AP25 AQ6:AX25 AZ7:AZ25 BB7:BB25 F34:F35 N24:N25 O16:O25 N15:N22 E14:BA14 F24:F25 L17:L25 M15:M25 E9:E25 J15:K25 E6:E7 J6:O14 D6:D25 G6:H25 F12:F14 F6:F9 F16:F22 D27:E27 G27:H27 J27:K27 M27:N27 J7:J25 I21:I24 I12:I14 I8">
+  <conditionalFormatting sqref="AY16:AY17 AS23:AY23 BA15:BB25 BH5:BI5 AP6:AP8 AY11 AZ6:BB14 AY8:AY9 P16 AF15:AH25 AI16:BA16 AE6:AE8 AE10:AE25 Q6:S25 T6:T7 T9:T25 U6:Y25 Z12:Z25 Z6:Z9 AA6:AD25 AI9 AJ6:AO25 AG6:AH14 AF6:AF7 AF9:AF14 AP10:AP25 AQ6:AX25 AZ7:AZ25 BB7:BB25 F34:F35 N24:N25 O16:O25 N15:N22 E14:BA14 F24:F25 I8 E9:E25 E6:E7 L13:L14 D6:D25 G6:H25 F12:F14 F6:F9 F16:F22 D27:E27 G27:H27 J27:K27 M27:N27 I21:I24 I12:I14 L11 J6:K25 L6 L21:L22 L17 L9 M6:O14 M15:M25">
     <cfRule type="colorScale" priority="1575">
       <colorScale>
         <cfvo type="num" val="0"/>
